--- a/Algebra y Estadistica/5- clase 15-5-24/Piramides departamentales ejercicio.xlsx
+++ b/Algebra y Estadistica/5- clase 15-5-24/Piramides departamentales ejercicio.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Desarrollo De Software 2023 Junin\Segundo Semestre\Algebra y Estadistica\clase 15-5-24\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Desarrollo De Software 2023 Junin\Segundo Semestre\Algebra y Estadistica\5- clase 15-5-24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{1ACB4797-3DC7-4195-96FF-8A43B6FDAF50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77B91A58-C88C-4DF7-A164-DE386DD5840D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="6"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="8" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Contenido" sheetId="44" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1096" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="93">
   <si>
     <t>Edad</t>
   </si>
@@ -445,16 +445,29 @@
   <si>
     <t>promedio</t>
   </si>
+  <si>
+    <t>PROMEDIO MUJERES &lt; 70</t>
+  </si>
+  <si>
+    <t>MUJERES</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>PROMEDIO</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="4">
-    <numFmt numFmtId="179" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="207" formatCode="0.0"/>
-    <numFmt numFmtId="208" formatCode="0.0;0.0"/>
-    <numFmt numFmtId="218" formatCode="0;[Black]0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="5">
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.0;0.0"/>
+    <numFmt numFmtId="167" formatCode="0;[Black]0"/>
+    <numFmt numFmtId="168" formatCode="0.0;[Black]0.0"/>
   </numFmts>
   <fonts count="15">
     <font>
@@ -643,30 +656,30 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="218" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="218" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="207" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="208" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="207" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="207" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -686,10 +699,10 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="208" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="207" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -716,10 +729,10 @@
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="208" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="207" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -761,6 +774,8 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -785,8 +800,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -14854,7 +14868,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:G37"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
@@ -15048,25 +15062,25 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D15" location="provincia!A1" display="Provincia"/>
-    <hyperlink ref="D17" location="capital!A1" display="Capital"/>
-    <hyperlink ref="D19" location="godoycruz!A1" display="Godoy Cruz"/>
-    <hyperlink ref="D21" location="G.Alvear!A1" display="General Alvear"/>
-    <hyperlink ref="D23" location="guaymallen!A1" display="Guaymallén"/>
-    <hyperlink ref="D25" location="Junin!A1" display="Junin"/>
-    <hyperlink ref="D27" location="lasheras!A1" display="Las Heras"/>
-    <hyperlink ref="D29" location="lapaz!A1" display="La Paz"/>
-    <hyperlink ref="D31" location="lavalle!A1" display="Lavalle"/>
-    <hyperlink ref="D33" location="lujan!A1" display="Luján"/>
-    <hyperlink ref="F17" location="Malargûe!A1" display="Malargüe"/>
-    <hyperlink ref="F19" location="Maipú!A1" display="Maipú"/>
-    <hyperlink ref="F21" location="Rivadavia!A1" display="Rivadavia"/>
-    <hyperlink ref="F23" location="'San Carlos'!A1" display="San Carlos"/>
-    <hyperlink ref="F25" location="'San Martin'!A1" display="San Martín"/>
-    <hyperlink ref="F27" location="'San Rafael'!A1" display="San Rafael"/>
-    <hyperlink ref="F29" location="santarosa!A1" display="Santa Rosa"/>
-    <hyperlink ref="F31" location="Tunuyàn!A1" display="Tunuyán "/>
-    <hyperlink ref="F33" location="Tupungato!A1" display="Tupungato"/>
+    <hyperlink ref="D15" location="provincia!A1" display="Provincia" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D17" location="capital!A1" display="Capital" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D19" location="godoycruz!A1" display="Godoy Cruz" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D21" location="G.Alvear!A1" display="General Alvear" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="D23" location="guaymallen!A1" display="Guaymallén" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="D25" location="Junin!A1" display="Junin" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="D27" location="lasheras!A1" display="Las Heras" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="D29" location="lapaz!A1" display="La Paz" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="D31" location="lavalle!A1" display="Lavalle" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="D33" location="lujan!A1" display="Luján" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="F17" location="Malargûe!A1" display="Malargüe" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="F19" location="Maipú!A1" display="Maipú" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="F21" location="Rivadavia!A1" display="Rivadavia" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="F23" location="'San Carlos'!A1" display="San Carlos" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="F25" location="'San Martin'!A1" display="San Martín" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="F27" location="'San Rafael'!A1" display="San Rafael" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="F29" location="santarosa!A1" display="Santa Rosa" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="F31" location="Tunuyàn!A1" display="Tunuyán " xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="F33" location="Tupungato!A1" display="Tupungato" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -15074,7 +15088,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="B1:N33"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -15122,24 +15136,24 @@
       </c>
     </row>
     <row r="6" spans="2:14">
-      <c r="B6" s="57" t="s">
+      <c r="B6" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="62" t="s">
+      <c r="C6" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="G6" s="57" t="s">
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="G6" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="H6" s="62" t="s">
+      <c r="H6" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="62"/>
+      <c r="I6" s="64"/>
     </row>
     <row r="7" spans="2:14">
-      <c r="B7" s="58"/>
+      <c r="B7" s="60"/>
       <c r="C7" s="42" t="s">
         <v>3</v>
       </c>
@@ -15150,7 +15164,7 @@
         <v>2</v>
       </c>
       <c r="F7" s="9"/>
-      <c r="G7" s="58"/>
+      <c r="G7" s="60"/>
       <c r="H7" s="42" t="s">
         <v>1</v>
       </c>
@@ -15889,7 +15903,7 @@
     <mergeCell ref="H6:I6"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="I1" location="Contenido!D31" display="Volver al Indice"/>
+    <hyperlink ref="I1" location="Contenido!D31" display="Volver al Indice" xr:uid="{00000000-0004-0000-0900-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -15900,7 +15914,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="B1:N33"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -15948,24 +15962,24 @@
       </c>
     </row>
     <row r="6" spans="2:14">
-      <c r="B6" s="57" t="s">
+      <c r="B6" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="62" t="s">
+      <c r="C6" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="G6" s="57" t="s">
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="G6" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="H6" s="62" t="s">
+      <c r="H6" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="62"/>
+      <c r="I6" s="64"/>
     </row>
     <row r="7" spans="2:14">
-      <c r="B7" s="58"/>
+      <c r="B7" s="60"/>
       <c r="C7" s="42" t="s">
         <v>3</v>
       </c>
@@ -15976,7 +15990,7 @@
         <v>2</v>
       </c>
       <c r="F7" s="9"/>
-      <c r="G7" s="58"/>
+      <c r="G7" s="60"/>
       <c r="H7" s="42" t="s">
         <v>1</v>
       </c>
@@ -16715,7 +16729,7 @@
     <mergeCell ref="H6:I6"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="I1" location="Contenido!D33" display="Volver al Indice"/>
+    <hyperlink ref="I1" location="Contenido!D33" display="Volver al Indice" xr:uid="{00000000-0004-0000-0A00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -16726,7 +16740,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="B1:N33"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -16774,24 +16788,24 @@
       </c>
     </row>
     <row r="6" spans="2:14">
-      <c r="B6" s="57" t="s">
+      <c r="B6" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="62" t="s">
+      <c r="C6" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="G6" s="57" t="s">
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="G6" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="H6" s="62" t="s">
+      <c r="H6" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="62"/>
+      <c r="I6" s="64"/>
     </row>
     <row r="7" spans="2:14">
-      <c r="B7" s="58"/>
+      <c r="B7" s="60"/>
       <c r="C7" s="42" t="s">
         <v>3</v>
       </c>
@@ -16802,7 +16816,7 @@
         <v>2</v>
       </c>
       <c r="F7" s="9"/>
-      <c r="G7" s="58"/>
+      <c r="G7" s="60"/>
       <c r="H7" s="42" t="s">
         <v>1</v>
       </c>
@@ -17541,7 +17555,7 @@
     <mergeCell ref="H6:I6"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="I1" location="Contenido!F17" display="Volver al Indice"/>
+    <hyperlink ref="I1" location="Contenido!F17" display="Volver al Indice" xr:uid="{00000000-0004-0000-0B00-000000000000}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
@@ -17555,7 +17569,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="B1:N33"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -17603,24 +17617,24 @@
       </c>
     </row>
     <row r="6" spans="2:14">
-      <c r="B6" s="57" t="s">
+      <c r="B6" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="62" t="s">
+      <c r="C6" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="G6" s="57" t="s">
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="G6" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="H6" s="62" t="s">
+      <c r="H6" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="62"/>
+      <c r="I6" s="64"/>
     </row>
     <row r="7" spans="2:14">
-      <c r="B7" s="58"/>
+      <c r="B7" s="60"/>
       <c r="C7" s="42" t="s">
         <v>3</v>
       </c>
@@ -17631,7 +17645,7 @@
         <v>2</v>
       </c>
       <c r="F7" s="9"/>
-      <c r="G7" s="58"/>
+      <c r="G7" s="60"/>
       <c r="H7" s="42" t="s">
         <v>1</v>
       </c>
@@ -18370,7 +18384,7 @@
     <mergeCell ref="H6:I6"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="I1" location="Contenido!F19" display="Volver al Indice"/>
+    <hyperlink ref="I1" location="Contenido!F19" display="Volver al Indice" xr:uid="{00000000-0004-0000-0C00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -18381,7 +18395,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="B1:N33"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -18429,24 +18443,24 @@
       </c>
     </row>
     <row r="6" spans="2:14">
-      <c r="B6" s="57" t="s">
+      <c r="B6" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="62" t="s">
+      <c r="C6" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="G6" s="57" t="s">
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="G6" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="H6" s="62" t="s">
+      <c r="H6" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="62"/>
+      <c r="I6" s="64"/>
     </row>
     <row r="7" spans="2:14">
-      <c r="B7" s="58"/>
+      <c r="B7" s="60"/>
       <c r="C7" s="42" t="s">
         <v>3</v>
       </c>
@@ -18457,7 +18471,7 @@
         <v>2</v>
       </c>
       <c r="F7" s="9"/>
-      <c r="G7" s="58"/>
+      <c r="G7" s="60"/>
       <c r="H7" s="42" t="s">
         <v>1</v>
       </c>
@@ -19196,7 +19210,7 @@
     <mergeCell ref="H6:I6"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="I1" location="Contenido!F21" display="Volver al Indice"/>
+    <hyperlink ref="I1" location="Contenido!F21" display="Volver al Indice" xr:uid="{00000000-0004-0000-0D00-000000000000}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
@@ -19210,7 +19224,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="B1:N33"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -19258,24 +19272,24 @@
       </c>
     </row>
     <row r="6" spans="2:14">
-      <c r="B6" s="57" t="s">
+      <c r="B6" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="62" t="s">
+      <c r="C6" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="G6" s="57" t="s">
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="G6" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="H6" s="62" t="s">
+      <c r="H6" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="62"/>
+      <c r="I6" s="64"/>
     </row>
     <row r="7" spans="2:14">
-      <c r="B7" s="58"/>
+      <c r="B7" s="60"/>
       <c r="C7" s="42" t="s">
         <v>3</v>
       </c>
@@ -19286,7 +19300,7 @@
         <v>2</v>
       </c>
       <c r="F7" s="9"/>
-      <c r="G7" s="58"/>
+      <c r="G7" s="60"/>
       <c r="H7" s="42" t="s">
         <v>1</v>
       </c>
@@ -20025,7 +20039,7 @@
     <mergeCell ref="H6:I6"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="I1" location="Contenido!F23" display="Volver al Indice"/>
+    <hyperlink ref="I1" location="Contenido!F23" display="Volver al Indice" xr:uid="{00000000-0004-0000-0E00-000000000000}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
@@ -20039,7 +20053,935 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+  <dimension ref="B1:N33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="0.85546875" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" customWidth="1"/>
+    <col min="11" max="11" width="29.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:14">
+      <c r="B1" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="I1" s="54" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14">
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14">
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" t="str">
+        <f>+B4</f>
+        <v>Mendoza. San Martín. Censo 2010</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14">
+      <c r="B6" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="G6" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="64" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="64"/>
+    </row>
+    <row r="7" spans="2:14">
+      <c r="B7" s="60"/>
+      <c r="C7" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="9"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="I7" s="42" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14">
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="K8" t="s">
+        <v>89</v>
+      </c>
+      <c r="L8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14">
+      <c r="B9" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="31">
+        <f>SUM(C10:C29)</f>
+        <v>118220</v>
+      </c>
+      <c r="D9" s="31">
+        <f>SUM(D10:D29)</f>
+        <v>57882</v>
+      </c>
+      <c r="E9" s="31">
+        <f>SUM(E10:E29)</f>
+        <v>60338</v>
+      </c>
+      <c r="F9" s="10"/>
+      <c r="G9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="6">
+        <f>-(D10/$C$9*100)</f>
+        <v>-4.6252749111825411</v>
+      </c>
+      <c r="I9" s="7">
+        <f>+E10/$C$9*100</f>
+        <v>4.4958551852478426</v>
+      </c>
+      <c r="K9" s="5">
+        <v>4</v>
+      </c>
+      <c r="L9" s="67">
+        <f>K9*E10</f>
+        <v>21260</v>
+      </c>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="2:14">
+      <c r="B10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="8">
+        <f t="shared" ref="C10:C29" si="0">+D10+E10</f>
+        <v>10783</v>
+      </c>
+      <c r="D10" s="14">
+        <v>5468</v>
+      </c>
+      <c r="E10" s="14">
+        <v>5315</v>
+      </c>
+      <c r="F10" s="10"/>
+      <c r="G10" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" s="6">
+        <f t="shared" ref="H10:H28" si="1">-(D11/$C$9*100)</f>
+        <v>-4.0898325156487907</v>
+      </c>
+      <c r="I10" s="7">
+        <f t="shared" ref="I10:I28" si="2">+E11/$C$9*100</f>
+        <v>4.0965995601421081</v>
+      </c>
+      <c r="J10" s="4"/>
+      <c r="K10" s="3">
+        <f>K9+5</f>
+        <v>9</v>
+      </c>
+      <c r="L10" s="3">
+        <f t="shared" ref="L10:L22" si="3">K10*E11</f>
+        <v>43587</v>
+      </c>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="2:14">
+      <c r="B11" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="8">
+        <f t="shared" si="0"/>
+        <v>9678</v>
+      </c>
+      <c r="D11" s="14">
+        <v>4835</v>
+      </c>
+      <c r="E11" s="14">
+        <v>4843</v>
+      </c>
+      <c r="F11" s="10"/>
+      <c r="G11" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" s="6">
+        <f t="shared" si="1"/>
+        <v>-4.5279986465911009</v>
+      </c>
+      <c r="I11" s="7">
+        <f t="shared" si="2"/>
+        <v>4.3139908644899343</v>
+      </c>
+      <c r="J11" s="4"/>
+      <c r="K11" s="3">
+        <f t="shared" ref="K11:K22" si="4">K10+5</f>
+        <v>14</v>
+      </c>
+      <c r="L11" s="3">
+        <f t="shared" si="3"/>
+        <v>71400</v>
+      </c>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="2:14">
+      <c r="B12" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="8">
+        <f t="shared" si="0"/>
+        <v>10453</v>
+      </c>
+      <c r="D12" s="14">
+        <v>5353</v>
+      </c>
+      <c r="E12" s="14">
+        <v>5100</v>
+      </c>
+      <c r="F12" s="10"/>
+      <c r="G12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" s="6">
+        <f t="shared" si="1"/>
+        <v>-4.6667230587041111</v>
+      </c>
+      <c r="I12" s="7">
+        <f t="shared" si="2"/>
+        <v>4.5584503468110302</v>
+      </c>
+      <c r="J12" s="4"/>
+      <c r="K12" s="3">
+        <f t="shared" si="4"/>
+        <v>19</v>
+      </c>
+      <c r="L12" s="3">
+        <f t="shared" si="3"/>
+        <v>102391</v>
+      </c>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="2:14">
+      <c r="B13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="8">
+        <f t="shared" si="0"/>
+        <v>10906</v>
+      </c>
+      <c r="D13" s="14">
+        <v>5517</v>
+      </c>
+      <c r="E13" s="14">
+        <v>5389</v>
+      </c>
+      <c r="F13" s="10"/>
+      <c r="G13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="6">
+        <f t="shared" si="1"/>
+        <v>-4.2031805109118592</v>
+      </c>
+      <c r="I13" s="7">
+        <f t="shared" si="2"/>
+        <v>4.14566063271866</v>
+      </c>
+      <c r="J13" s="4"/>
+      <c r="K13" s="3">
+        <f t="shared" si="4"/>
+        <v>24</v>
+      </c>
+      <c r="L13" s="3">
+        <f t="shared" si="3"/>
+        <v>117624</v>
+      </c>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="2:14">
+      <c r="B14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="8">
+        <f t="shared" si="0"/>
+        <v>9870</v>
+      </c>
+      <c r="D14" s="14">
+        <v>4969</v>
+      </c>
+      <c r="E14" s="14">
+        <v>4901</v>
+      </c>
+      <c r="F14" s="10"/>
+      <c r="G14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="6">
+        <f t="shared" si="1"/>
+        <v>-3.6956521739130435</v>
+      </c>
+      <c r="I14" s="7">
+        <f t="shared" si="2"/>
+        <v>3.6626628320081207</v>
+      </c>
+      <c r="J14" s="4"/>
+      <c r="K14" s="3">
+        <f t="shared" si="4"/>
+        <v>29</v>
+      </c>
+      <c r="L14" s="3">
+        <f t="shared" si="3"/>
+        <v>125570</v>
+      </c>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="2:14">
+      <c r="B15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="8">
+        <f t="shared" si="0"/>
+        <v>8699</v>
+      </c>
+      <c r="D15" s="14">
+        <v>4369</v>
+      </c>
+      <c r="E15" s="14">
+        <v>4330</v>
+      </c>
+      <c r="F15" s="10"/>
+      <c r="G15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="6">
+        <f t="shared" si="1"/>
+        <v>-3.5983759093216037</v>
+      </c>
+      <c r="I15" s="7">
+        <f t="shared" si="2"/>
+        <v>3.8276095415327358</v>
+      </c>
+      <c r="J15" s="4"/>
+      <c r="K15" s="3">
+        <f t="shared" si="4"/>
+        <v>34</v>
+      </c>
+      <c r="L15" s="3">
+        <f t="shared" si="3"/>
+        <v>153850</v>
+      </c>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="2:14">
+      <c r="B16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="8">
+        <f t="shared" si="0"/>
+        <v>8779</v>
+      </c>
+      <c r="D16" s="14">
+        <v>4254</v>
+      </c>
+      <c r="E16" s="14">
+        <v>4525</v>
+      </c>
+      <c r="F16" s="10"/>
+      <c r="G16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="6">
+        <f t="shared" si="1"/>
+        <v>-3.1568262561326339</v>
+      </c>
+      <c r="I16" s="7">
+        <f t="shared" si="2"/>
+        <v>3.2363390289291152</v>
+      </c>
+      <c r="J16" s="4"/>
+      <c r="K16" s="3">
+        <f t="shared" si="4"/>
+        <v>39</v>
+      </c>
+      <c r="L16" s="3">
+        <f t="shared" si="3"/>
+        <v>149214</v>
+      </c>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="2:14">
+      <c r="B17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="8">
+        <f t="shared" si="0"/>
+        <v>7558</v>
+      </c>
+      <c r="D17" s="14">
+        <v>3732</v>
+      </c>
+      <c r="E17" s="14">
+        <v>3826</v>
+      </c>
+      <c r="F17" s="10"/>
+      <c r="G17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="6">
+        <f t="shared" si="1"/>
+        <v>-2.4403654204026388</v>
+      </c>
+      <c r="I17" s="7">
+        <f t="shared" si="2"/>
+        <v>2.7533412282185754</v>
+      </c>
+      <c r="J17" s="4"/>
+      <c r="K17" s="3">
+        <f t="shared" si="4"/>
+        <v>44</v>
+      </c>
+      <c r="L17" s="3">
+        <f t="shared" si="3"/>
+        <v>143220</v>
+      </c>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="2:14">
+      <c r="B18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="8">
+        <f t="shared" si="0"/>
+        <v>6140</v>
+      </c>
+      <c r="D18" s="14">
+        <v>2885</v>
+      </c>
+      <c r="E18" s="14">
+        <v>3255</v>
+      </c>
+      <c r="F18" s="10"/>
+      <c r="G18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="6">
+        <f t="shared" si="1"/>
+        <v>-2.5215699543224499</v>
+      </c>
+      <c r="I18" s="7">
+        <f t="shared" si="2"/>
+        <v>2.586702757570631</v>
+      </c>
+      <c r="J18" s="4"/>
+      <c r="K18" s="3">
+        <f t="shared" si="4"/>
+        <v>49</v>
+      </c>
+      <c r="L18" s="3">
+        <f t="shared" si="3"/>
+        <v>149842</v>
+      </c>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="2:14">
+      <c r="B19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="8">
+        <f t="shared" si="0"/>
+        <v>6039</v>
+      </c>
+      <c r="D19" s="14">
+        <v>2981</v>
+      </c>
+      <c r="E19" s="14">
+        <v>3058</v>
+      </c>
+      <c r="F19" s="10"/>
+      <c r="G19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="6">
+        <f t="shared" si="1"/>
+        <v>-2.3650820504144816</v>
+      </c>
+      <c r="I19" s="7">
+        <f t="shared" si="2"/>
+        <v>2.5004229402808322</v>
+      </c>
+      <c r="J19" s="4"/>
+      <c r="K19" s="3">
+        <f t="shared" si="4"/>
+        <v>54</v>
+      </c>
+      <c r="L19" s="3">
+        <f t="shared" si="3"/>
+        <v>159624</v>
+      </c>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="2:14">
+      <c r="B20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="8">
+        <f t="shared" si="0"/>
+        <v>5752</v>
+      </c>
+      <c r="D20" s="14">
+        <v>2796</v>
+      </c>
+      <c r="E20" s="14">
+        <v>2956</v>
+      </c>
+      <c r="F20" s="10"/>
+      <c r="G20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" s="6">
+        <f t="shared" si="1"/>
+        <v>-2.3346303501945527</v>
+      </c>
+      <c r="I20" s="7">
+        <f t="shared" si="2"/>
+        <v>2.5410252072407378</v>
+      </c>
+      <c r="J20" s="4"/>
+      <c r="K20" s="3">
+        <f t="shared" si="4"/>
+        <v>59</v>
+      </c>
+      <c r="L20" s="3">
+        <f t="shared" si="3"/>
+        <v>177236</v>
+      </c>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="2:14">
+      <c r="B21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="8">
+        <f t="shared" si="0"/>
+        <v>5764</v>
+      </c>
+      <c r="D21" s="14">
+        <v>2760</v>
+      </c>
+      <c r="E21" s="14">
+        <v>3004</v>
+      </c>
+      <c r="F21" s="10"/>
+      <c r="G21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H21" s="6">
+        <f t="shared" si="1"/>
+        <v>-2.0690238538318391</v>
+      </c>
+      <c r="I21" s="7">
+        <f t="shared" si="2"/>
+        <v>2.2085941465065133</v>
+      </c>
+      <c r="J21" s="4"/>
+      <c r="K21" s="3">
+        <f t="shared" si="4"/>
+        <v>64</v>
+      </c>
+      <c r="L21" s="3">
+        <f t="shared" si="3"/>
+        <v>167104</v>
+      </c>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="2:14">
+      <c r="B22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="8">
+        <f t="shared" si="0"/>
+        <v>5057</v>
+      </c>
+      <c r="D22" s="14">
+        <v>2446</v>
+      </c>
+      <c r="E22" s="14">
+        <v>2611</v>
+      </c>
+      <c r="F22" s="10"/>
+      <c r="G22" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H22" s="6">
+        <f t="shared" si="1"/>
+        <v>-1.5978683809846048</v>
+      </c>
+      <c r="I22" s="7">
+        <f t="shared" si="2"/>
+        <v>1.931145322280494</v>
+      </c>
+      <c r="J22" s="4"/>
+      <c r="K22" s="3">
+        <f t="shared" si="4"/>
+        <v>69</v>
+      </c>
+      <c r="L22" s="3">
+        <f t="shared" si="3"/>
+        <v>157527</v>
+      </c>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="2:14">
+      <c r="B23" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="8">
+        <f t="shared" si="0"/>
+        <v>4172</v>
+      </c>
+      <c r="D23" s="14">
+        <v>1889</v>
+      </c>
+      <c r="E23" s="14">
+        <v>2283</v>
+      </c>
+      <c r="F23" s="10"/>
+      <c r="G23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H23" s="6">
+        <f t="shared" si="1"/>
+        <v>-1.2671290813737099</v>
+      </c>
+      <c r="I23" s="7">
+        <f t="shared" si="2"/>
+        <v>1.5200473693114531</v>
+      </c>
+      <c r="J23" s="4"/>
+      <c r="K23" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L23" s="3">
+        <f>SUM(L9:L22)</f>
+        <v>1739449</v>
+      </c>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="2:14">
+      <c r="B24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="8">
+        <f t="shared" si="0"/>
+        <v>3295</v>
+      </c>
+      <c r="D24" s="14">
+        <v>1498</v>
+      </c>
+      <c r="E24" s="14">
+        <v>1797</v>
+      </c>
+      <c r="F24" s="10"/>
+      <c r="G24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H24" s="6">
+        <f t="shared" si="1"/>
+        <v>-0.92031805109118592</v>
+      </c>
+      <c r="I24" s="7">
+        <f t="shared" si="2"/>
+        <v>1.1842327863305702</v>
+      </c>
+      <c r="J24" s="4"/>
+      <c r="K24" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L24" s="3">
+        <f>L23/E9</f>
+        <v>28.828416586562366</v>
+      </c>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="2:14">
+      <c r="B25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="8">
+        <f t="shared" si="0"/>
+        <v>2488</v>
+      </c>
+      <c r="D25" s="14">
+        <v>1088</v>
+      </c>
+      <c r="E25" s="14">
+        <v>1400</v>
+      </c>
+      <c r="F25" s="10"/>
+      <c r="G25" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25" s="6">
+        <f t="shared" si="1"/>
+        <v>-0.57604466249365593</v>
+      </c>
+      <c r="I25" s="7">
+        <f t="shared" si="2"/>
+        <v>0.8475723227880223</v>
+      </c>
+      <c r="J25" s="4"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="2:14">
+      <c r="B26" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="8">
+        <f t="shared" si="0"/>
+        <v>1683</v>
+      </c>
+      <c r="D26" s="14">
+        <v>681</v>
+      </c>
+      <c r="E26" s="14">
+        <v>1002</v>
+      </c>
+      <c r="F26" s="10"/>
+      <c r="G26" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H26" s="6">
+        <f t="shared" si="1"/>
+        <v>-0.23430891558111994</v>
+      </c>
+      <c r="I26" s="7">
+        <f t="shared" si="2"/>
+        <v>0.45762138386059886</v>
+      </c>
+      <c r="J26" s="4"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="2:14">
+      <c r="B27" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="8">
+        <f t="shared" si="0"/>
+        <v>818</v>
+      </c>
+      <c r="D27" s="14">
+        <v>277</v>
+      </c>
+      <c r="E27" s="14">
+        <v>541</v>
+      </c>
+      <c r="F27" s="10"/>
+      <c r="G27" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H27" s="6">
+        <f t="shared" si="1"/>
+        <v>-6.1749281001522591E-2</v>
+      </c>
+      <c r="I27" s="7">
+        <f t="shared" si="2"/>
+        <v>0.13957029267467433</v>
+      </c>
+      <c r="J27" s="4"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+    </row>
+    <row r="28" spans="2:14">
+      <c r="B28" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="8">
+        <f t="shared" si="0"/>
+        <v>238</v>
+      </c>
+      <c r="D28" s="14">
+        <v>73</v>
+      </c>
+      <c r="E28" s="14">
+        <v>165</v>
+      </c>
+      <c r="F28" s="10"/>
+      <c r="G28" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="H28" s="34">
+        <f t="shared" si="1"/>
+        <v>-9.3046861783116219E-3</v>
+      </c>
+      <c r="I28" s="35">
+        <f t="shared" si="2"/>
+        <v>3.1297580781593635E-2</v>
+      </c>
+      <c r="J28" s="4"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+    </row>
+    <row r="29" spans="2:14">
+      <c r="B29" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="27">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="D29" s="28">
+        <v>11</v>
+      </c>
+      <c r="E29" s="28">
+        <v>37</v>
+      </c>
+      <c r="F29" s="10"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+    </row>
+    <row r="30" spans="2:14">
+      <c r="B30" s="2"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+    </row>
+    <row r="31" spans="2:14">
+      <c r="B31" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+    </row>
+    <row r="32" spans="2:14">
+      <c r="B32" s="2"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+    </row>
+    <row r="33" spans="11:14">
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:I6"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="I1" location="Contenido!F25" display="Volver al Indice" xr:uid="{00000000-0004-0000-0F00-000000000000}"/>
+  </hyperlinks>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <ignoredErrors>
+    <ignoredError sqref="G11 B12" twoDigitTextYear="1"/>
+  </ignoredErrors>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="B1:N33"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -20079,32 +21021,32 @@
     </row>
     <row r="4" spans="2:14">
       <c r="B4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G4" t="str">
         <f>+B4</f>
-        <v>Mendoza. San Martín. Censo 2010</v>
+        <v>Mendoza. San Rafael. Censo 2010</v>
       </c>
     </row>
     <row r="6" spans="2:14">
-      <c r="B6" s="57" t="s">
+      <c r="B6" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="62" t="s">
+      <c r="C6" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="G6" s="57" t="s">
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="G6" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="H6" s="62" t="s">
+      <c r="H6" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="62"/>
+      <c r="I6" s="64"/>
     </row>
     <row r="7" spans="2:14">
-      <c r="B7" s="58"/>
+      <c r="B7" s="60"/>
       <c r="C7" s="42" t="s">
         <v>3</v>
       </c>
@@ -20115,7 +21057,7 @@
         <v>2</v>
       </c>
       <c r="F7" s="9"/>
-      <c r="G7" s="58"/>
+      <c r="G7" s="60"/>
       <c r="H7" s="42" t="s">
         <v>1</v>
       </c>
@@ -20139,15 +21081,15 @@
       </c>
       <c r="C9" s="31">
         <f>SUM(C10:C29)</f>
-        <v>118220</v>
+        <v>188018</v>
       </c>
       <c r="D9" s="31">
         <f>SUM(D10:D29)</f>
-        <v>57882</v>
+        <v>91051</v>
       </c>
       <c r="E9" s="31">
         <f>SUM(E10:E29)</f>
-        <v>60338</v>
+        <v>96967</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="2" t="s">
@@ -20155,11 +21097,11 @@
       </c>
       <c r="H9" s="6">
         <f>-(D10/$C$9*100)</f>
-        <v>-4.6252749111825411</v>
+        <v>-4.291078513759321</v>
       </c>
       <c r="I9" s="7">
         <f>+E10/$C$9*100</f>
-        <v>4.4958551852478426</v>
+        <v>4.1985341828973821</v>
       </c>
       <c r="K9" s="5"/>
       <c r="L9" s="3"/>
@@ -20172,13 +21114,13 @@
       </c>
       <c r="C10" s="8">
         <f t="shared" ref="C10:C29" si="0">+D10+E10</f>
-        <v>10783</v>
+        <v>15962</v>
       </c>
       <c r="D10" s="14">
-        <v>5468</v>
+        <v>8068</v>
       </c>
       <c r="E10" s="14">
-        <v>5315</v>
+        <v>7894</v>
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="11" t="s">
@@ -20186,11 +21128,11 @@
       </c>
       <c r="H10" s="6">
         <f t="shared" ref="H10:H28" si="1">-(D11/$C$9*100)</f>
-        <v>-4.0898325156487907</v>
+        <v>-3.8927123998766078</v>
       </c>
       <c r="I10" s="7">
         <f t="shared" ref="I10:I28" si="2">+E11/$C$9*100</f>
-        <v>4.0965995601421081</v>
+        <v>3.8139965322469127</v>
       </c>
       <c r="J10" s="4"/>
       <c r="K10" s="3"/>
@@ -20204,13 +21146,13 @@
       </c>
       <c r="C11" s="8">
         <f t="shared" si="0"/>
-        <v>9678</v>
+        <v>14490</v>
       </c>
       <c r="D11" s="14">
-        <v>4835</v>
+        <v>7319</v>
       </c>
       <c r="E11" s="14">
-        <v>4843</v>
+        <v>7171</v>
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="12" t="s">
@@ -20218,11 +21160,11 @@
       </c>
       <c r="H11" s="6">
         <f t="shared" si="1"/>
-        <v>-4.5279986465911009</v>
+        <v>-4.4272356901998746</v>
       </c>
       <c r="I11" s="7">
         <f t="shared" si="2"/>
-        <v>4.3139908644899343</v>
+        <v>4.4485102490187112</v>
       </c>
       <c r="J11" s="4"/>
       <c r="K11" s="3"/>
@@ -20236,13 +21178,13 @@
       </c>
       <c r="C12" s="8">
         <f t="shared" si="0"/>
-        <v>10453</v>
+        <v>16688</v>
       </c>
       <c r="D12" s="14">
-        <v>5353</v>
+        <v>8324</v>
       </c>
       <c r="E12" s="14">
-        <v>5100</v>
+        <v>8364</v>
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="2" t="s">
@@ -20250,11 +21192,11 @@
       </c>
       <c r="H12" s="6">
         <f t="shared" si="1"/>
-        <v>-4.6667230587041111</v>
+        <v>-4.6405131423587109</v>
       </c>
       <c r="I12" s="7">
         <f t="shared" si="2"/>
-        <v>4.5584503468110302</v>
+        <v>4.5208437490027551</v>
       </c>
       <c r="J12" s="4"/>
       <c r="K12" s="3"/>
@@ -20268,13 +21210,13 @@
       </c>
       <c r="C13" s="8">
         <f t="shared" si="0"/>
-        <v>10906</v>
+        <v>17225</v>
       </c>
       <c r="D13" s="14">
-        <v>5517</v>
+        <v>8725</v>
       </c>
       <c r="E13" s="14">
-        <v>5389</v>
+        <v>8500</v>
       </c>
       <c r="F13" s="10"/>
       <c r="G13" s="2" t="s">
@@ -20282,11 +21224,11 @@
       </c>
       <c r="H13" s="6">
         <f t="shared" si="1"/>
-        <v>-4.2031805109118592</v>
+        <v>-4.0730142858662468</v>
       </c>
       <c r="I13" s="7">
         <f t="shared" si="2"/>
-        <v>4.14566063271866</v>
+        <v>4.1325830505589893</v>
       </c>
       <c r="J13" s="4"/>
       <c r="K13" s="3"/>
@@ -20300,13 +21242,13 @@
       </c>
       <c r="C14" s="8">
         <f t="shared" si="0"/>
-        <v>9870</v>
+        <v>15428</v>
       </c>
       <c r="D14" s="14">
-        <v>4969</v>
+        <v>7658</v>
       </c>
       <c r="E14" s="14">
-        <v>4901</v>
+        <v>7770</v>
       </c>
       <c r="F14" s="10"/>
       <c r="G14" s="2" t="s">
@@ -20314,11 +21256,11 @@
       </c>
       <c r="H14" s="6">
         <f t="shared" si="1"/>
-        <v>-3.6956521739130435</v>
+        <v>-3.6464593815485751</v>
       </c>
       <c r="I14" s="7">
         <f t="shared" si="2"/>
-        <v>3.6626628320081207</v>
+        <v>3.7538959035836998</v>
       </c>
       <c r="J14" s="4"/>
       <c r="K14" s="1"/>
@@ -20332,13 +21274,13 @@
       </c>
       <c r="C15" s="8">
         <f t="shared" si="0"/>
-        <v>8699</v>
+        <v>13914</v>
       </c>
       <c r="D15" s="14">
-        <v>4369</v>
+        <v>6856</v>
       </c>
       <c r="E15" s="14">
-        <v>4330</v>
+        <v>7058</v>
       </c>
       <c r="F15" s="10"/>
       <c r="G15" s="2" t="s">
@@ -20346,11 +21288,11 @@
       </c>
       <c r="H15" s="6">
         <f t="shared" si="1"/>
-        <v>-3.5983759093216037</v>
+        <v>-3.4289270176259721</v>
       </c>
       <c r="I15" s="7">
         <f t="shared" si="2"/>
-        <v>3.8276095415327358</v>
+        <v>3.6730525800721203</v>
       </c>
       <c r="J15" s="4"/>
       <c r="K15" s="1"/>
@@ -20364,13 +21306,13 @@
       </c>
       <c r="C16" s="8">
         <f t="shared" si="0"/>
-        <v>8779</v>
+        <v>13353</v>
       </c>
       <c r="D16" s="14">
-        <v>4254</v>
+        <v>6447</v>
       </c>
       <c r="E16" s="14">
-        <v>4525</v>
+        <v>6906</v>
       </c>
       <c r="F16" s="10"/>
       <c r="G16" s="2" t="s">
@@ -20378,11 +21320,11 @@
       </c>
       <c r="H16" s="6">
         <f t="shared" si="1"/>
-        <v>-3.1568262561326339</v>
+        <v>-3.0188598963928985</v>
       </c>
       <c r="I16" s="7">
         <f t="shared" si="2"/>
-        <v>3.2363390289291152</v>
+        <v>3.2550074992819837</v>
       </c>
       <c r="J16" s="4"/>
       <c r="K16" s="1"/>
@@ -20396,13 +21338,13 @@
       </c>
       <c r="C17" s="8">
         <f t="shared" si="0"/>
-        <v>7558</v>
+        <v>11796</v>
       </c>
       <c r="D17" s="14">
-        <v>3732</v>
+        <v>5676</v>
       </c>
       <c r="E17" s="14">
-        <v>3826</v>
+        <v>6120</v>
       </c>
       <c r="F17" s="10"/>
       <c r="G17" s="2" t="s">
@@ -20410,11 +21352,11 @@
       </c>
       <c r="H17" s="6">
         <f t="shared" si="1"/>
-        <v>-2.4403654204026388</v>
+        <v>-2.5513514663489669</v>
       </c>
       <c r="I17" s="7">
         <f t="shared" si="2"/>
-        <v>2.7533412282185754</v>
+        <v>2.712506249401653</v>
       </c>
       <c r="J17" s="4"/>
       <c r="K17" s="1"/>
@@ -20428,13 +21370,13 @@
       </c>
       <c r="C18" s="8">
         <f t="shared" si="0"/>
-        <v>6140</v>
+        <v>9897</v>
       </c>
       <c r="D18" s="14">
-        <v>2885</v>
+        <v>4797</v>
       </c>
       <c r="E18" s="14">
-        <v>3255</v>
+        <v>5100</v>
       </c>
       <c r="F18" s="10"/>
       <c r="G18" s="2" t="s">
@@ -20442,11 +21384,11 @@
       </c>
       <c r="H18" s="6">
         <f t="shared" si="1"/>
-        <v>-2.5215699543224499</v>
+        <v>-2.4923145656266956</v>
       </c>
       <c r="I18" s="7">
         <f t="shared" si="2"/>
-        <v>2.586702757570631</v>
+        <v>2.7385675839547279</v>
       </c>
       <c r="J18" s="4"/>
       <c r="K18" s="1"/>
@@ -20460,13 +21402,13 @@
       </c>
       <c r="C19" s="8">
         <f t="shared" si="0"/>
-        <v>6039</v>
+        <v>9835</v>
       </c>
       <c r="D19" s="14">
-        <v>2981</v>
+        <v>4686</v>
       </c>
       <c r="E19" s="14">
-        <v>3058</v>
+        <v>5149</v>
       </c>
       <c r="F19" s="10"/>
       <c r="G19" s="2" t="s">
@@ -20474,11 +21416,11 @@
       </c>
       <c r="H19" s="6">
         <f t="shared" si="1"/>
-        <v>-2.3650820504144816</v>
+        <v>-2.4343413928453659</v>
       </c>
       <c r="I19" s="7">
         <f t="shared" si="2"/>
-        <v>2.5004229402808322</v>
+        <v>2.6210256464806561</v>
       </c>
       <c r="J19" s="4"/>
       <c r="K19" s="1"/>
@@ -20492,13 +21434,13 @@
       </c>
       <c r="C20" s="8">
         <f t="shared" si="0"/>
-        <v>5752</v>
+        <v>9505</v>
       </c>
       <c r="D20" s="14">
-        <v>2796</v>
+        <v>4577</v>
       </c>
       <c r="E20" s="14">
-        <v>2956</v>
+        <v>4928</v>
       </c>
       <c r="F20" s="10"/>
       <c r="G20" s="2" t="s">
@@ -20506,11 +21448,11 @@
       </c>
       <c r="H20" s="6">
         <f t="shared" si="1"/>
-        <v>-2.3346303501945527</v>
+        <v>-2.3923241391781636</v>
       </c>
       <c r="I20" s="7">
         <f t="shared" si="2"/>
-        <v>2.5410252072407378</v>
+        <v>2.6657022200002127</v>
       </c>
       <c r="J20" s="4"/>
       <c r="K20" s="1"/>
@@ -20524,13 +21466,13 @@
       </c>
       <c r="C21" s="8">
         <f t="shared" si="0"/>
-        <v>5764</v>
+        <v>9510</v>
       </c>
       <c r="D21" s="14">
-        <v>2760</v>
+        <v>4498</v>
       </c>
       <c r="E21" s="14">
-        <v>3004</v>
+        <v>5012</v>
       </c>
       <c r="F21" s="10"/>
       <c r="G21" s="2" t="s">
@@ -20538,11 +21480,11 @@
       </c>
       <c r="H21" s="6">
         <f t="shared" si="1"/>
-        <v>-2.0690238538318391</v>
+        <v>-2.1614951759937875</v>
       </c>
       <c r="I21" s="7">
         <f t="shared" si="2"/>
-        <v>2.2085941465065133</v>
+        <v>2.3992383707942855</v>
       </c>
       <c r="J21" s="4"/>
       <c r="K21" s="1"/>
@@ -20556,13 +21498,13 @@
       </c>
       <c r="C22" s="8">
         <f t="shared" si="0"/>
-        <v>5057</v>
+        <v>8575</v>
       </c>
       <c r="D22" s="14">
-        <v>2446</v>
+        <v>4064</v>
       </c>
       <c r="E22" s="14">
-        <v>2611</v>
+        <v>4511</v>
       </c>
       <c r="F22" s="10"/>
       <c r="G22" s="2" t="s">
@@ -20570,11 +21512,11 @@
       </c>
       <c r="H22" s="6">
         <f t="shared" si="1"/>
-        <v>-1.5978683809846048</v>
+        <v>-1.6610111797806593</v>
       </c>
       <c r="I22" s="7">
         <f t="shared" si="2"/>
-        <v>1.931145322280494</v>
+        <v>1.9705560105947304</v>
       </c>
       <c r="J22" s="4"/>
       <c r="K22" s="1"/>
@@ -20588,13 +21530,13 @@
       </c>
       <c r="C23" s="8">
         <f t="shared" si="0"/>
-        <v>4172</v>
+        <v>6828</v>
       </c>
       <c r="D23" s="14">
-        <v>1889</v>
+        <v>3123</v>
       </c>
       <c r="E23" s="14">
-        <v>2283</v>
+        <v>3705</v>
       </c>
       <c r="F23" s="10"/>
       <c r="G23" s="2" t="s">
@@ -20602,11 +21544,11 @@
       </c>
       <c r="H23" s="6">
         <f t="shared" si="1"/>
-        <v>-1.2671290813737099</v>
+        <v>-1.3232775585316299</v>
       </c>
       <c r="I23" s="7">
         <f t="shared" si="2"/>
-        <v>1.5200473693114531</v>
+        <v>1.6088885106745099</v>
       </c>
       <c r="J23" s="4"/>
       <c r="K23" s="1"/>
@@ -20620,13 +21562,13 @@
       </c>
       <c r="C24" s="8">
         <f t="shared" si="0"/>
-        <v>3295</v>
+        <v>5513</v>
       </c>
       <c r="D24" s="14">
-        <v>1498</v>
+        <v>2488</v>
       </c>
       <c r="E24" s="14">
-        <v>1797</v>
+        <v>3025</v>
       </c>
       <c r="F24" s="10"/>
       <c r="G24" s="2" t="s">
@@ -20634,11 +21576,11 @@
       </c>
       <c r="H24" s="6">
         <f t="shared" si="1"/>
-        <v>-0.92031805109118592</v>
+        <v>-0.94618600346775306</v>
       </c>
       <c r="I24" s="7">
         <f t="shared" si="2"/>
-        <v>1.1842327863305702</v>
+        <v>1.2982799519194972</v>
       </c>
       <c r="J24" s="4"/>
       <c r="K24" s="1"/>
@@ -20652,13 +21594,13 @@
       </c>
       <c r="C25" s="8">
         <f t="shared" si="0"/>
-        <v>2488</v>
+        <v>4220</v>
       </c>
       <c r="D25" s="14">
-        <v>1088</v>
+        <v>1779</v>
       </c>
       <c r="E25" s="14">
-        <v>1400</v>
+        <v>2441</v>
       </c>
       <c r="F25" s="10"/>
       <c r="G25" s="2" t="s">
@@ -20666,11 +21608,11 @@
       </c>
       <c r="H25" s="6">
         <f t="shared" si="1"/>
-        <v>-0.57604466249365593</v>
+        <v>-0.65312895573828045</v>
       </c>
       <c r="I25" s="7">
         <f t="shared" si="2"/>
-        <v>0.8475723227880223</v>
+        <v>0.99937240051484433</v>
       </c>
       <c r="J25" s="4"/>
       <c r="K25" s="1"/>
@@ -20684,13 +21626,13 @@
       </c>
       <c r="C26" s="8">
         <f t="shared" si="0"/>
-        <v>1683</v>
+        <v>3107</v>
       </c>
       <c r="D26" s="14">
-        <v>681</v>
+        <v>1228</v>
       </c>
       <c r="E26" s="14">
-        <v>1002</v>
+        <v>1879</v>
       </c>
       <c r="F26" s="10"/>
       <c r="G26" s="2" t="s">
@@ -20698,11 +21640,11 @@
       </c>
       <c r="H26" s="6">
         <f t="shared" si="1"/>
-        <v>-0.23430891558111994</v>
+        <v>-0.30209873522747827</v>
       </c>
       <c r="I26" s="7">
         <f t="shared" si="2"/>
-        <v>0.45762138386059886</v>
+        <v>0.51271686753395951</v>
       </c>
       <c r="J26" s="4"/>
       <c r="K26" s="1"/>
@@ -20716,13 +21658,13 @@
       </c>
       <c r="C27" s="8">
         <f t="shared" si="0"/>
-        <v>818</v>
+        <v>1532</v>
       </c>
       <c r="D27" s="14">
-        <v>277</v>
+        <v>568</v>
       </c>
       <c r="E27" s="14">
-        <v>541</v>
+        <v>964</v>
       </c>
       <c r="F27" s="10"/>
       <c r="G27" s="2" t="s">
@@ -20730,11 +21672,11 @@
       </c>
       <c r="H27" s="6">
         <f t="shared" si="1"/>
-        <v>-6.1749281001522591E-2</v>
+        <v>-7.6588411747811377E-2</v>
       </c>
       <c r="I27" s="7">
         <f t="shared" si="2"/>
-        <v>0.13957029267467433</v>
+        <v>0.1935984852514121</v>
       </c>
       <c r="J27" s="4"/>
       <c r="K27" s="1"/>
@@ -20748,13 +21690,13 @@
       </c>
       <c r="C28" s="8">
         <f t="shared" si="0"/>
-        <v>238</v>
+        <v>508</v>
       </c>
       <c r="D28" s="14">
-        <v>73</v>
+        <v>144</v>
       </c>
       <c r="E28" s="14">
-        <v>165</v>
+        <v>364</v>
       </c>
       <c r="F28" s="10"/>
       <c r="G28" s="26" t="s">
@@ -20762,11 +21704,11 @@
       </c>
       <c r="H28" s="34">
         <f t="shared" si="1"/>
-        <v>-9.3046861783116219E-3</v>
+        <v>-1.3828463232243722E-2</v>
       </c>
       <c r="I28" s="35">
         <f t="shared" si="2"/>
-        <v>3.1297580781593635E-2</v>
+        <v>5.6377580869916705E-2</v>
       </c>
       <c r="J28" s="4"/>
       <c r="K28" s="1"/>
@@ -20780,13 +21722,13 @@
       </c>
       <c r="C29" s="27">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>132</v>
       </c>
       <c r="D29" s="28">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="E29" s="28">
-        <v>37</v>
+        <v>106</v>
       </c>
       <c r="F29" s="10"/>
       <c r="G29" s="2"/>
@@ -20799,10 +21741,10 @@
       <c r="N29" s="1"/>
     </row>
     <row r="30" spans="2:14">
-      <c r="B30" s="2"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
       <c r="F30" s="10"/>
       <c r="G30" s="2"/>
       <c r="H30" s="6"/>
@@ -20848,13 +21790,14 @@
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:E6"/>
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="H6:I6"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="B6:B7"/>
   </mergeCells>
+  <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="I1" location="Contenido!F25" display="Volver al Indice"/>
+    <hyperlink ref="I1" location="Contenido!F27" display="Volver al Indice" xr:uid="{00000000-0004-0000-1000-000000000000}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
@@ -20867,8 +21810,834 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+  <dimension ref="B1:N33"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="0.85546875" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" customWidth="1"/>
+    <col min="11" max="11" width="6.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:14">
+      <c r="B1" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="I1" s="54" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14">
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14">
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" t="str">
+        <f>+B4</f>
+        <v>Mendoza. Santa Rosa. Censo 2010</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14">
+      <c r="B6" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="G6" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="64" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="64"/>
+    </row>
+    <row r="7" spans="2:14">
+      <c r="B7" s="60"/>
+      <c r="C7" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="9"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="I7" s="42" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14">
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+    </row>
+    <row r="9" spans="2:14">
+      <c r="B9" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="31">
+        <f>SUM(C10:C29)</f>
+        <v>16374</v>
+      </c>
+      <c r="D9" s="31">
+        <f>SUM(D10:D29)</f>
+        <v>8312</v>
+      </c>
+      <c r="E9" s="31">
+        <f>SUM(E10:E29)</f>
+        <v>8062</v>
+      </c>
+      <c r="F9" s="10"/>
+      <c r="G9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="6">
+        <f>-(D10/$C$9*100)</f>
+        <v>-4.6903627702455113</v>
+      </c>
+      <c r="I9" s="7">
+        <f>+E10/$C$9*100</f>
+        <v>4.7453279589593258</v>
+      </c>
+      <c r="K9" s="5"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="2:14">
+      <c r="B10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="8">
+        <f t="shared" ref="C10:C29" si="0">+D10+E10</f>
+        <v>1545</v>
+      </c>
+      <c r="D10" s="14">
+        <v>768</v>
+      </c>
+      <c r="E10" s="14">
+        <v>777</v>
+      </c>
+      <c r="F10" s="10"/>
+      <c r="G10" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" s="6">
+        <f t="shared" ref="H10:H27" si="1">-(D11/$C$9*100)</f>
+        <v>-4.2750702332966899</v>
+      </c>
+      <c r="I10" s="7">
+        <f t="shared" ref="I10:I28" si="2">+E11/$C$9*100</f>
+        <v>4.2811774764871133</v>
+      </c>
+      <c r="J10" s="4"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="2:14">
+      <c r="B11" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="8">
+        <f t="shared" si="0"/>
+        <v>1401</v>
+      </c>
+      <c r="D11" s="14">
+        <v>700</v>
+      </c>
+      <c r="E11" s="14">
+        <v>701</v>
+      </c>
+      <c r="F11" s="10"/>
+      <c r="G11" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" s="6">
+        <f t="shared" si="1"/>
+        <v>-5.2094784414315383</v>
+      </c>
+      <c r="I11" s="7">
+        <f t="shared" si="2"/>
+        <v>4.9468669842433126</v>
+      </c>
+      <c r="J11" s="4"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="2:14">
+      <c r="B12" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="8">
+        <f t="shared" si="0"/>
+        <v>1663</v>
+      </c>
+      <c r="D12" s="14">
+        <v>853</v>
+      </c>
+      <c r="E12" s="14">
+        <v>810</v>
+      </c>
+      <c r="F12" s="10"/>
+      <c r="G12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" s="6">
+        <f t="shared" si="1"/>
+        <v>-5.3804812507634052</v>
+      </c>
+      <c r="I12" s="7">
+        <f t="shared" si="2"/>
+        <v>4.9407597410528883</v>
+      </c>
+      <c r="J12" s="4"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="2:14">
+      <c r="B13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="8">
+        <f t="shared" si="0"/>
+        <v>1690</v>
+      </c>
+      <c r="D13" s="14">
+        <v>881</v>
+      </c>
+      <c r="E13" s="14">
+        <v>809</v>
+      </c>
+      <c r="F13" s="10"/>
+      <c r="G13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="6">
+        <f t="shared" si="1"/>
+        <v>-4.5865396360083057</v>
+      </c>
+      <c r="I13" s="7">
+        <f t="shared" si="2"/>
+        <v>3.9025283986808357</v>
+      </c>
+      <c r="J13" s="4"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="2:14">
+      <c r="B14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="8">
+        <f t="shared" si="0"/>
+        <v>1390</v>
+      </c>
+      <c r="D14" s="14">
+        <v>751</v>
+      </c>
+      <c r="E14" s="14">
+        <v>639</v>
+      </c>
+      <c r="F14" s="10"/>
+      <c r="G14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="6">
+        <f t="shared" si="1"/>
+        <v>-3.5788445095883721</v>
+      </c>
+      <c r="I14" s="7">
+        <f t="shared" si="2"/>
+        <v>3.7376328325393922</v>
+      </c>
+      <c r="J14" s="4"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="2:14">
+      <c r="B15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="8">
+        <f t="shared" si="0"/>
+        <v>1198</v>
+      </c>
+      <c r="D15" s="14">
+        <v>586</v>
+      </c>
+      <c r="E15" s="14">
+        <v>612</v>
+      </c>
+      <c r="F15" s="10"/>
+      <c r="G15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="6">
+        <f t="shared" si="1"/>
+        <v>-3.5544155368266765</v>
+      </c>
+      <c r="I15" s="7">
+        <f t="shared" si="2"/>
+        <v>3.6032734823500676</v>
+      </c>
+      <c r="J15" s="4"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="2:14">
+      <c r="B16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="8">
+        <f t="shared" si="0"/>
+        <v>1172</v>
+      </c>
+      <c r="D16" s="14">
+        <v>582</v>
+      </c>
+      <c r="E16" s="14">
+        <v>590</v>
+      </c>
+      <c r="F16" s="10"/>
+      <c r="G16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="6">
+        <f t="shared" si="1"/>
+        <v>-2.9986564064981067</v>
+      </c>
+      <c r="I16" s="7">
+        <f t="shared" si="2"/>
+        <v>2.9681201905459873</v>
+      </c>
+      <c r="J16" s="4"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="2:14">
+      <c r="B17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="8">
+        <f t="shared" si="0"/>
+        <v>977</v>
+      </c>
+      <c r="D17" s="14">
+        <v>491</v>
+      </c>
+      <c r="E17" s="14">
+        <v>486</v>
+      </c>
+      <c r="F17" s="10"/>
+      <c r="G17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="6">
+        <f t="shared" si="1"/>
+        <v>-2.5894711127397092</v>
+      </c>
+      <c r="I17" s="7">
+        <f t="shared" si="2"/>
+        <v>2.6688652742152192</v>
+      </c>
+      <c r="J17" s="4"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="2:14">
+      <c r="B18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="8">
+        <f t="shared" si="0"/>
+        <v>861</v>
+      </c>
+      <c r="D18" s="14">
+        <v>424</v>
+      </c>
+      <c r="E18" s="14">
+        <v>437</v>
+      </c>
+      <c r="F18" s="10"/>
+      <c r="G18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="6">
+        <f t="shared" si="1"/>
+        <v>-2.5650421399780141</v>
+      </c>
+      <c r="I18" s="7">
+        <f t="shared" si="2"/>
+        <v>2.4306827897886891</v>
+      </c>
+      <c r="J18" s="4"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="2:14">
+      <c r="B19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="8">
+        <f t="shared" si="0"/>
+        <v>818</v>
+      </c>
+      <c r="D19" s="14">
+        <v>420</v>
+      </c>
+      <c r="E19" s="14">
+        <v>398</v>
+      </c>
+      <c r="F19" s="10"/>
+      <c r="G19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="6">
+        <f t="shared" si="1"/>
+        <v>-2.4428972761695369</v>
+      </c>
+      <c r="I19" s="7">
+        <f t="shared" si="2"/>
+        <v>2.2780017100280934</v>
+      </c>
+      <c r="J19" s="4"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="2:14">
+      <c r="B20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="8">
+        <f t="shared" si="0"/>
+        <v>773</v>
+      </c>
+      <c r="D20" s="14">
+        <v>400</v>
+      </c>
+      <c r="E20" s="14">
+        <v>373</v>
+      </c>
+      <c r="F20" s="10"/>
+      <c r="G20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" s="6">
+        <f t="shared" si="1"/>
+        <v>-2.3024306827897889</v>
+      </c>
+      <c r="I20" s="7">
+        <f t="shared" si="2"/>
+        <v>2.2657872236472456</v>
+      </c>
+      <c r="J20" s="4"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="2:14">
+      <c r="B21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="8">
+        <f t="shared" si="0"/>
+        <v>748</v>
+      </c>
+      <c r="D21" s="14">
+        <v>377</v>
+      </c>
+      <c r="E21" s="14">
+        <v>371</v>
+      </c>
+      <c r="F21" s="10"/>
+      <c r="G21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H21" s="6">
+        <f t="shared" si="1"/>
+        <v>-2.1253206302674972</v>
+      </c>
+      <c r="I21" s="7">
+        <f t="shared" si="2"/>
+        <v>1.9604250641260534</v>
+      </c>
+      <c r="J21" s="4"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="2:14">
+      <c r="B22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="8">
+        <f t="shared" si="0"/>
+        <v>669</v>
+      </c>
+      <c r="D22" s="14">
+        <v>348</v>
+      </c>
+      <c r="E22" s="14">
+        <v>321</v>
+      </c>
+      <c r="F22" s="10"/>
+      <c r="G22" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H22" s="6">
+        <f t="shared" si="1"/>
+        <v>-1.8443874435080005</v>
+      </c>
+      <c r="I22" s="7">
+        <f t="shared" si="2"/>
+        <v>1.4107731769879077</v>
+      </c>
+      <c r="J22" s="4"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="2:14">
+      <c r="B23" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="8">
+        <f t="shared" si="0"/>
+        <v>533</v>
+      </c>
+      <c r="D23" s="14">
+        <v>302</v>
+      </c>
+      <c r="E23" s="14">
+        <v>231</v>
+      </c>
+      <c r="F23" s="10"/>
+      <c r="G23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H23" s="6">
+        <f t="shared" si="1"/>
+        <v>-1.0870892878954441</v>
+      </c>
+      <c r="I23" s="7">
+        <f t="shared" si="2"/>
+        <v>1.1542689629901062</v>
+      </c>
+      <c r="J23" s="4"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="2:14">
+      <c r="B24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="8">
+        <f t="shared" si="0"/>
+        <v>367</v>
+      </c>
+      <c r="D24" s="14">
+        <v>178</v>
+      </c>
+      <c r="E24" s="14">
+        <v>189</v>
+      </c>
+      <c r="F24" s="10"/>
+      <c r="G24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H24" s="6">
+        <f t="shared" si="1"/>
+        <v>-0.84279956027849023</v>
+      </c>
+      <c r="I24" s="7">
+        <f t="shared" si="2"/>
+        <v>0.96494442408696712</v>
+      </c>
+      <c r="J24" s="4"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="2:14">
+      <c r="B25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="8">
+        <f t="shared" si="0"/>
+        <v>296</v>
+      </c>
+      <c r="D25" s="14">
+        <v>138</v>
+      </c>
+      <c r="E25" s="14">
+        <v>158</v>
+      </c>
+      <c r="F25" s="10"/>
+      <c r="G25" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25" s="6">
+        <f t="shared" si="1"/>
+        <v>-0.43972150971051671</v>
+      </c>
+      <c r="I25" s="7">
+        <f t="shared" si="2"/>
+        <v>0.62293880542323199</v>
+      </c>
+      <c r="J25" s="4"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="2:14">
+      <c r="B26" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="8">
+        <f t="shared" si="0"/>
+        <v>174</v>
+      </c>
+      <c r="D26" s="14">
+        <v>72</v>
+      </c>
+      <c r="E26" s="14">
+        <v>102</v>
+      </c>
+      <c r="F26" s="10"/>
+      <c r="G26" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H26" s="6">
+        <f t="shared" si="1"/>
+        <v>-0.19543178209356296</v>
+      </c>
+      <c r="I26" s="7">
+        <f t="shared" si="2"/>
+        <v>0.26871870037864909</v>
+      </c>
+      <c r="J26" s="4"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="2:14">
+      <c r="B27" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="8">
+        <f t="shared" si="0"/>
+        <v>76</v>
+      </c>
+      <c r="D27" s="14">
+        <v>32</v>
+      </c>
+      <c r="E27" s="14">
+        <v>44</v>
+      </c>
+      <c r="F27" s="10"/>
+      <c r="G27" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H27" s="6">
+        <f t="shared" si="1"/>
+        <v>-5.4965188713814589E-2</v>
+      </c>
+      <c r="I27" s="7">
+        <f t="shared" si="2"/>
+        <v>6.7179675094662272E-2</v>
+      </c>
+      <c r="J27" s="4"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+    </row>
+    <row r="28" spans="2:14">
+      <c r="B28" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="8">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="D28" s="14">
+        <v>9</v>
+      </c>
+      <c r="E28" s="14">
+        <v>11</v>
+      </c>
+      <c r="F28" s="10"/>
+      <c r="G28" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="H28" s="34">
+        <f>-(D29/$C$9*100)</f>
+        <v>0</v>
+      </c>
+      <c r="I28" s="35">
+        <f t="shared" si="2"/>
+        <v>1.8321729571271528E-2</v>
+      </c>
+      <c r="J28" s="4"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+    </row>
+    <row r="29" spans="2:14">
+      <c r="B29" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="27">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D29" s="28">
+        <v>0</v>
+      </c>
+      <c r="E29" s="28">
+        <v>3</v>
+      </c>
+      <c r="F29" s="10"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+    </row>
+    <row r="30" spans="2:14">
+      <c r="B30" s="16"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+    </row>
+    <row r="31" spans="2:14">
+      <c r="B31" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+    </row>
+    <row r="32" spans="2:14">
+      <c r="B32" s="2"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+    </row>
+    <row r="33" spans="11:14">
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:I6"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="I1" location="Contenido!F29" display="Volver al Indice" xr:uid="{00000000-0004-0000-1100-000000000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="G11 B12" twoDigitTextYear="1"/>
+  </ignoredErrors>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="B1:N33"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -20908,32 +22677,32 @@
     </row>
     <row r="4" spans="2:14">
       <c r="B4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G4" t="str">
         <f>+B4</f>
-        <v>Mendoza. San Rafael. Censo 2010</v>
+        <v>Mendoza. Tunuyán. Censo 2010</v>
       </c>
     </row>
     <row r="6" spans="2:14">
-      <c r="B6" s="57" t="s">
+      <c r="B6" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="62" t="s">
+      <c r="C6" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="G6" s="57" t="s">
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="G6" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="H6" s="62" t="s">
+      <c r="H6" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="62"/>
+      <c r="I6" s="64"/>
     </row>
     <row r="7" spans="2:14">
-      <c r="B7" s="58"/>
+      <c r="B7" s="60"/>
       <c r="C7" s="42" t="s">
         <v>3</v>
       </c>
@@ -20944,7 +22713,7 @@
         <v>2</v>
       </c>
       <c r="F7" s="9"/>
-      <c r="G7" s="58"/>
+      <c r="G7" s="60"/>
       <c r="H7" s="42" t="s">
         <v>1</v>
       </c>
@@ -20968,15 +22737,15 @@
       </c>
       <c r="C9" s="31">
         <f>SUM(C10:C29)</f>
-        <v>188018</v>
+        <v>49458</v>
       </c>
       <c r="D9" s="31">
         <f>SUM(D10:D29)</f>
-        <v>91051</v>
+        <v>24424</v>
       </c>
       <c r="E9" s="31">
         <f>SUM(E10:E29)</f>
-        <v>96967</v>
+        <v>25034</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="2" t="s">
@@ -20984,11 +22753,11 @@
       </c>
       <c r="H9" s="6">
         <f>-(D10/$C$9*100)</f>
-        <v>-4.291078513759321</v>
+        <v>-5.2792268187148688</v>
       </c>
       <c r="I9" s="7">
         <f>+E10/$C$9*100</f>
-        <v>4.1985341828973821</v>
+        <v>5.174087104209633</v>
       </c>
       <c r="K9" s="5"/>
       <c r="L9" s="3"/>
@@ -21001,13 +22770,13 @@
       </c>
       <c r="C10" s="8">
         <f t="shared" ref="C10:C29" si="0">+D10+E10</f>
-        <v>15962</v>
+        <v>5170</v>
       </c>
       <c r="D10" s="14">
-        <v>8068</v>
+        <v>2611</v>
       </c>
       <c r="E10" s="14">
-        <v>7894</v>
+        <v>2559</v>
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="11" t="s">
@@ -21015,11 +22784,11 @@
       </c>
       <c r="H10" s="6">
         <f t="shared" ref="H10:H28" si="1">-(D11/$C$9*100)</f>
-        <v>-3.8927123998766078</v>
+        <v>-4.6665857899632011</v>
       </c>
       <c r="I10" s="7">
         <f t="shared" ref="I10:I28" si="2">+E11/$C$9*100</f>
-        <v>3.8139965322469127</v>
+        <v>4.5937967568441911</v>
       </c>
       <c r="J10" s="4"/>
       <c r="K10" s="3"/>
@@ -21033,13 +22802,13 @@
       </c>
       <c r="C11" s="8">
         <f t="shared" si="0"/>
-        <v>14490</v>
+        <v>4580</v>
       </c>
       <c r="D11" s="14">
-        <v>7319</v>
+        <v>2308</v>
       </c>
       <c r="E11" s="14">
-        <v>7171</v>
+        <v>2272</v>
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="12" t="s">
@@ -21047,11 +22816,11 @@
       </c>
       <c r="H11" s="6">
         <f t="shared" si="1"/>
-        <v>-4.4272356901998746</v>
+        <v>-4.6140159327105827</v>
       </c>
       <c r="I11" s="7">
         <f t="shared" si="2"/>
-        <v>4.4485102490187112</v>
+        <v>4.4684378664725628</v>
       </c>
       <c r="J11" s="4"/>
       <c r="K11" s="3"/>
@@ -21065,13 +22834,13 @@
       </c>
       <c r="C12" s="8">
         <f t="shared" si="0"/>
-        <v>16688</v>
+        <v>4492</v>
       </c>
       <c r="D12" s="14">
-        <v>8324</v>
+        <v>2282</v>
       </c>
       <c r="E12" s="14">
-        <v>8364</v>
+        <v>2210</v>
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="2" t="s">
@@ -21079,11 +22848,11 @@
       </c>
       <c r="H12" s="6">
         <f t="shared" si="1"/>
-        <v>-4.6405131423587109</v>
+        <v>-4.8162076913744993</v>
       </c>
       <c r="I12" s="7">
         <f t="shared" si="2"/>
-        <v>4.5208437490027551</v>
+        <v>4.9516761696793239</v>
       </c>
       <c r="J12" s="4"/>
       <c r="K12" s="3"/>
@@ -21097,13 +22866,13 @@
       </c>
       <c r="C13" s="8">
         <f t="shared" si="0"/>
-        <v>17225</v>
+        <v>4831</v>
       </c>
       <c r="D13" s="14">
-        <v>8725</v>
+        <v>2382</v>
       </c>
       <c r="E13" s="14">
-        <v>8500</v>
+        <v>2449</v>
       </c>
       <c r="F13" s="10"/>
       <c r="G13" s="2" t="s">
@@ -21111,11 +22880,11 @@
       </c>
       <c r="H13" s="6">
         <f t="shared" si="1"/>
-        <v>-4.0730142858662468</v>
+        <v>-4.0842735250111204</v>
       </c>
       <c r="I13" s="7">
         <f t="shared" si="2"/>
-        <v>4.1325830505589893</v>
+        <v>4.2278296736625016</v>
       </c>
       <c r="J13" s="4"/>
       <c r="K13" s="3"/>
@@ -21129,13 +22898,13 @@
       </c>
       <c r="C14" s="8">
         <f t="shared" si="0"/>
-        <v>15428</v>
+        <v>4111</v>
       </c>
       <c r="D14" s="14">
-        <v>7658</v>
+        <v>2020</v>
       </c>
       <c r="E14" s="14">
-        <v>7770</v>
+        <v>2091</v>
       </c>
       <c r="F14" s="10"/>
       <c r="G14" s="2" t="s">
@@ -21143,11 +22912,11 @@
       </c>
       <c r="H14" s="6">
         <f t="shared" si="1"/>
-        <v>-3.6464593815485751</v>
+        <v>-3.9386954587731005</v>
       </c>
       <c r="I14" s="7">
         <f t="shared" si="2"/>
-        <v>3.7538959035836998</v>
+        <v>3.9407173763597396</v>
       </c>
       <c r="J14" s="4"/>
       <c r="K14" s="1"/>
@@ -21161,13 +22930,13 @@
       </c>
       <c r="C15" s="8">
         <f t="shared" si="0"/>
-        <v>13914</v>
+        <v>3897</v>
       </c>
       <c r="D15" s="14">
-        <v>6856</v>
+        <v>1948</v>
       </c>
       <c r="E15" s="14">
-        <v>7058</v>
+        <v>1949</v>
       </c>
       <c r="F15" s="10"/>
       <c r="G15" s="2" t="s">
@@ -21175,11 +22944,11 @@
       </c>
       <c r="H15" s="6">
         <f t="shared" si="1"/>
-        <v>-3.4289270176259721</v>
+        <v>-3.7789639694286059</v>
       </c>
       <c r="I15" s="7">
         <f t="shared" si="2"/>
-        <v>3.6730525800721203</v>
+        <v>3.8436653322010592</v>
       </c>
       <c r="J15" s="4"/>
       <c r="K15" s="1"/>
@@ -21193,13 +22962,13 @@
       </c>
       <c r="C16" s="8">
         <f t="shared" si="0"/>
-        <v>13353</v>
+        <v>3770</v>
       </c>
       <c r="D16" s="14">
-        <v>6447</v>
+        <v>1869</v>
       </c>
       <c r="E16" s="14">
-        <v>6906</v>
+        <v>1901</v>
       </c>
       <c r="F16" s="10"/>
       <c r="G16" s="2" t="s">
@@ -21207,11 +22976,11 @@
       </c>
       <c r="H16" s="6">
         <f t="shared" si="1"/>
-        <v>-3.0188598963928985</v>
+        <v>-3.1339722592907111</v>
       </c>
       <c r="I16" s="7">
         <f t="shared" si="2"/>
-        <v>3.2550074992819837</v>
+        <v>3.2027174572364432</v>
       </c>
       <c r="J16" s="4"/>
       <c r="K16" s="1"/>
@@ -21225,13 +22994,13 @@
       </c>
       <c r="C17" s="8">
         <f t="shared" si="0"/>
-        <v>11796</v>
+        <v>3134</v>
       </c>
       <c r="D17" s="14">
-        <v>5676</v>
+        <v>1550</v>
       </c>
       <c r="E17" s="14">
-        <v>6120</v>
+        <v>1584</v>
       </c>
       <c r="F17" s="10"/>
       <c r="G17" s="2" t="s">
@@ -21239,11 +23008,11 @@
       </c>
       <c r="H17" s="6">
         <f t="shared" si="1"/>
-        <v>-2.5513514663489669</v>
+        <v>-2.7700270936956608</v>
       </c>
       <c r="I17" s="7">
         <f t="shared" si="2"/>
-        <v>2.712506249401653</v>
+        <v>2.949977758906547</v>
       </c>
       <c r="J17" s="4"/>
       <c r="K17" s="1"/>
@@ -21257,13 +23026,13 @@
       </c>
       <c r="C18" s="8">
         <f t="shared" si="0"/>
-        <v>9897</v>
+        <v>2829</v>
       </c>
       <c r="D18" s="14">
-        <v>4797</v>
+        <v>1370</v>
       </c>
       <c r="E18" s="14">
-        <v>5100</v>
+        <v>1459</v>
       </c>
       <c r="F18" s="10"/>
       <c r="G18" s="2" t="s">
@@ -21271,11 +23040,11 @@
       </c>
       <c r="H18" s="6">
         <f t="shared" si="1"/>
-        <v>-2.4923145656266956</v>
+        <v>-2.3110518015285697</v>
       </c>
       <c r="I18" s="7">
         <f t="shared" si="2"/>
-        <v>2.7385675839547279</v>
+        <v>2.4222572687937238</v>
       </c>
       <c r="J18" s="4"/>
       <c r="K18" s="1"/>
@@ -21289,13 +23058,13 @@
       </c>
       <c r="C19" s="8">
         <f t="shared" si="0"/>
-        <v>9835</v>
+        <v>2341</v>
       </c>
       <c r="D19" s="14">
-        <v>4686</v>
+        <v>1143</v>
       </c>
       <c r="E19" s="14">
-        <v>5149</v>
+        <v>1198</v>
       </c>
       <c r="F19" s="10"/>
       <c r="G19" s="2" t="s">
@@ -21303,11 +23072,11 @@
       </c>
       <c r="H19" s="6">
         <f t="shared" si="1"/>
-        <v>-2.4343413928453659</v>
+        <v>-2.3110518015285697</v>
       </c>
       <c r="I19" s="7">
         <f t="shared" si="2"/>
-        <v>2.6210256464806561</v>
+        <v>2.3454244005014355</v>
       </c>
       <c r="J19" s="4"/>
       <c r="K19" s="1"/>
@@ -21321,13 +23090,13 @@
       </c>
       <c r="C20" s="8">
         <f t="shared" si="0"/>
-        <v>9505</v>
+        <v>2303</v>
       </c>
       <c r="D20" s="14">
-        <v>4577</v>
+        <v>1143</v>
       </c>
       <c r="E20" s="14">
-        <v>4928</v>
+        <v>1160</v>
       </c>
       <c r="F20" s="10"/>
       <c r="G20" s="2" t="s">
@@ -21335,11 +23104,11 @@
       </c>
       <c r="H20" s="6">
         <f t="shared" si="1"/>
-        <v>-2.3923241391781636</v>
+        <v>-2.1129038780379314</v>
       </c>
       <c r="I20" s="7">
         <f t="shared" si="2"/>
-        <v>2.6657022200002127</v>
+        <v>2.2423066035828381</v>
       </c>
       <c r="J20" s="4"/>
       <c r="K20" s="1"/>
@@ -21353,13 +23122,13 @@
       </c>
       <c r="C21" s="8">
         <f t="shared" si="0"/>
-        <v>9510</v>
+        <v>2154</v>
       </c>
       <c r="D21" s="14">
-        <v>4498</v>
+        <v>1045</v>
       </c>
       <c r="E21" s="14">
-        <v>5012</v>
+        <v>1109</v>
       </c>
       <c r="F21" s="10"/>
       <c r="G21" s="2" t="s">
@@ -21367,11 +23136,11 @@
       </c>
       <c r="H21" s="6">
         <f t="shared" si="1"/>
-        <v>-2.1614951759937875</v>
+        <v>-1.8480326741882003</v>
       </c>
       <c r="I21" s="7">
         <f t="shared" si="2"/>
-        <v>2.3992383707942855</v>
+        <v>1.8824052731610659</v>
       </c>
       <c r="J21" s="4"/>
       <c r="K21" s="1"/>
@@ -21385,13 +23154,13 @@
       </c>
       <c r="C22" s="8">
         <f t="shared" si="0"/>
-        <v>8575</v>
+        <v>1845</v>
       </c>
       <c r="D22" s="14">
-        <v>4064</v>
+        <v>914</v>
       </c>
       <c r="E22" s="14">
-        <v>4511</v>
+        <v>931</v>
       </c>
       <c r="F22" s="10"/>
       <c r="G22" s="2" t="s">
@@ -21399,11 +23168,11 @@
       </c>
       <c r="H22" s="6">
         <f t="shared" si="1"/>
-        <v>-1.6610111797806593</v>
+        <v>-1.3607505358081604</v>
       </c>
       <c r="I22" s="7">
         <f t="shared" si="2"/>
-        <v>1.9705560105947304</v>
+        <v>1.4436491568603664</v>
       </c>
       <c r="J22" s="4"/>
       <c r="K22" s="1"/>
@@ -21417,13 +23186,13 @@
       </c>
       <c r="C23" s="8">
         <f t="shared" si="0"/>
-        <v>6828</v>
+        <v>1387</v>
       </c>
       <c r="D23" s="14">
-        <v>3123</v>
+        <v>673</v>
       </c>
       <c r="E23" s="14">
-        <v>3705</v>
+        <v>714</v>
       </c>
       <c r="F23" s="10"/>
       <c r="G23" s="2" t="s">
@@ -21431,11 +23200,11 @@
       </c>
       <c r="H23" s="6">
         <f t="shared" si="1"/>
-        <v>-1.3232775585316299</v>
+        <v>-1.0170245460795018</v>
       </c>
       <c r="I23" s="7">
         <f t="shared" si="2"/>
-        <v>1.6088885106745099</v>
+        <v>1.0797039912653161</v>
       </c>
       <c r="J23" s="4"/>
       <c r="K23" s="1"/>
@@ -21449,13 +23218,13 @@
       </c>
       <c r="C24" s="8">
         <f t="shared" si="0"/>
-        <v>5513</v>
+        <v>1037</v>
       </c>
       <c r="D24" s="14">
-        <v>2488</v>
+        <v>503</v>
       </c>
       <c r="E24" s="14">
-        <v>3025</v>
+        <v>534</v>
       </c>
       <c r="F24" s="10"/>
       <c r="G24" s="2" t="s">
@@ -21463,11 +23232,11 @@
       </c>
       <c r="H24" s="6">
         <f t="shared" si="1"/>
-        <v>-0.94618600346775306</v>
+        <v>-0.73597800153665738</v>
       </c>
       <c r="I24" s="7">
         <f t="shared" si="2"/>
-        <v>1.2982799519194972</v>
+        <v>0.85122730397508994</v>
       </c>
       <c r="J24" s="4"/>
       <c r="K24" s="1"/>
@@ -21481,13 +23250,13 @@
       </c>
       <c r="C25" s="8">
         <f t="shared" si="0"/>
-        <v>4220</v>
+        <v>785</v>
       </c>
       <c r="D25" s="14">
-        <v>1779</v>
+        <v>364</v>
       </c>
       <c r="E25" s="14">
-        <v>2441</v>
+        <v>421</v>
       </c>
       <c r="F25" s="10"/>
       <c r="G25" s="2" t="s">
@@ -21495,11 +23264,11 @@
       </c>
       <c r="H25" s="6">
         <f t="shared" si="1"/>
-        <v>-0.65312895573828045</v>
+        <v>-0.37203283594160702</v>
       </c>
       <c r="I25" s="7">
         <f t="shared" si="2"/>
-        <v>0.99937240051484433</v>
+        <v>0.59848760564519388</v>
       </c>
       <c r="J25" s="4"/>
       <c r="K25" s="1"/>
@@ -21513,13 +23282,13 @@
       </c>
       <c r="C26" s="8">
         <f t="shared" si="0"/>
-        <v>3107</v>
+        <v>480</v>
       </c>
       <c r="D26" s="14">
-        <v>1228</v>
+        <v>184</v>
       </c>
       <c r="E26" s="14">
-        <v>1879</v>
+        <v>296</v>
       </c>
       <c r="F26" s="10"/>
       <c r="G26" s="2" t="s">
@@ -21527,11 +23296,11 @@
       </c>
       <c r="H26" s="6">
         <f t="shared" si="1"/>
-        <v>-0.30209873522747827</v>
+        <v>-0.16781915969105099</v>
       </c>
       <c r="I26" s="7">
         <f t="shared" si="2"/>
-        <v>0.51271686753395951</v>
+        <v>0.26689312143637023</v>
       </c>
       <c r="J26" s="4"/>
       <c r="K26" s="1"/>
@@ -21545,13 +23314,13 @@
       </c>
       <c r="C27" s="8">
         <f t="shared" si="0"/>
-        <v>1532</v>
+        <v>215</v>
       </c>
       <c r="D27" s="14">
-        <v>568</v>
+        <v>83</v>
       </c>
       <c r="E27" s="14">
-        <v>964</v>
+        <v>132</v>
       </c>
       <c r="F27" s="10"/>
       <c r="G27" s="2" t="s">
@@ -21559,11 +23328,11 @@
       </c>
       <c r="H27" s="6">
         <f t="shared" si="1"/>
-        <v>-7.6588411747811377E-2</v>
+        <v>-5.2569857252618382E-2</v>
       </c>
       <c r="I27" s="7">
         <f t="shared" si="2"/>
-        <v>0.1935984852514121</v>
+        <v>0.10109587933195842</v>
       </c>
       <c r="J27" s="4"/>
       <c r="K27" s="1"/>
@@ -21577,13 +23346,13 @@
       </c>
       <c r="C28" s="8">
         <f t="shared" si="0"/>
-        <v>508</v>
+        <v>76</v>
       </c>
       <c r="D28" s="14">
-        <v>144</v>
+        <v>26</v>
       </c>
       <c r="E28" s="14">
-        <v>364</v>
+        <v>50</v>
       </c>
       <c r="F28" s="10"/>
       <c r="G28" s="26" t="s">
@@ -21591,11 +23360,11 @@
       </c>
       <c r="H28" s="34">
         <f t="shared" si="1"/>
-        <v>-1.3828463232243722E-2</v>
+        <v>-1.2131505519835011E-2</v>
       </c>
       <c r="I28" s="35">
         <f t="shared" si="2"/>
-        <v>5.6377580869916705E-2</v>
+        <v>3.0328763799587526E-2</v>
       </c>
       <c r="J28" s="4"/>
       <c r="K28" s="1"/>
@@ -21609,13 +23378,13 @@
       </c>
       <c r="C29" s="27">
         <f t="shared" si="0"/>
-        <v>132</v>
+        <v>21</v>
       </c>
       <c r="D29" s="28">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="E29" s="28">
-        <v>106</v>
+        <v>15</v>
       </c>
       <c r="F29" s="10"/>
       <c r="G29" s="2"/>
@@ -21677,1669 +23446,13 @@
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="B6:B7"/>
-  </mergeCells>
-  <phoneticPr fontId="0" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="I1" location="Contenido!F27" display="Volver al Indice"/>
-  </hyperlinks>
-  <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-  <ignoredErrors>
-    <ignoredError sqref="G11 B12" twoDigitTextYear="1"/>
-  </ignoredErrors>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:N33"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" max="1" width="0.85546875" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" customWidth="1"/>
-    <col min="6" max="6" width="5.7109375" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" customWidth="1"/>
-    <col min="11" max="11" width="6.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:14">
-      <c r="B1" s="36" t="s">
-        <v>72</v>
-      </c>
-      <c r="I1" s="54" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="3" spans="2:14">
-      <c r="B3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="2:14">
-      <c r="B4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G4" t="str">
-        <f>+B4</f>
-        <v>Mendoza. Santa Rosa. Censo 2010</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14">
-      <c r="B6" s="57" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="62" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="G6" s="57" t="s">
-        <v>0</v>
-      </c>
-      <c r="H6" s="62" t="s">
-        <v>25</v>
-      </c>
-      <c r="I6" s="62"/>
-    </row>
-    <row r="7" spans="2:14">
-      <c r="B7" s="58"/>
-      <c r="C7" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="I7" s="42" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14">
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-    </row>
-    <row r="9" spans="2:14">
-      <c r="B9" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="31">
-        <f>SUM(C10:C29)</f>
-        <v>16374</v>
-      </c>
-      <c r="D9" s="31">
-        <f>SUM(D10:D29)</f>
-        <v>8312</v>
-      </c>
-      <c r="E9" s="31">
-        <f>SUM(E10:E29)</f>
-        <v>8062</v>
-      </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="6">
-        <f>-(D10/$C$9*100)</f>
-        <v>-4.6903627702455113</v>
-      </c>
-      <c r="I9" s="7">
-        <f>+E10/$C$9*100</f>
-        <v>4.7453279589593258</v>
-      </c>
-      <c r="K9" s="5"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="2:14">
-      <c r="B10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="8">
-        <f t="shared" ref="C10:C29" si="0">+D10+E10</f>
-        <v>1545</v>
-      </c>
-      <c r="D10" s="14">
-        <v>768</v>
-      </c>
-      <c r="E10" s="14">
-        <v>777</v>
-      </c>
-      <c r="F10" s="10"/>
-      <c r="G10" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H10" s="6">
-        <f t="shared" ref="H10:H27" si="1">-(D11/$C$9*100)</f>
-        <v>-4.2750702332966899</v>
-      </c>
-      <c r="I10" s="7">
-        <f t="shared" ref="I10:I28" si="2">+E11/$C$9*100</f>
-        <v>4.2811774764871133</v>
-      </c>
-      <c r="J10" s="4"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="2:14">
-      <c r="B11" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="8">
-        <f t="shared" si="0"/>
-        <v>1401</v>
-      </c>
-      <c r="D11" s="14">
-        <v>700</v>
-      </c>
-      <c r="E11" s="14">
-        <v>701</v>
-      </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="H11" s="6">
-        <f t="shared" si="1"/>
-        <v>-5.2094784414315383</v>
-      </c>
-      <c r="I11" s="7">
-        <f t="shared" si="2"/>
-        <v>4.9468669842433126</v>
-      </c>
-      <c r="J11" s="4"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="2:14">
-      <c r="B12" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="8">
-        <f t="shared" si="0"/>
-        <v>1663</v>
-      </c>
-      <c r="D12" s="14">
-        <v>853</v>
-      </c>
-      <c r="E12" s="14">
-        <v>810</v>
-      </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H12" s="6">
-        <f t="shared" si="1"/>
-        <v>-5.3804812507634052</v>
-      </c>
-      <c r="I12" s="7">
-        <f t="shared" si="2"/>
-        <v>4.9407597410528883</v>
-      </c>
-      <c r="J12" s="4"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="2:14">
-      <c r="B13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="8">
-        <f t="shared" si="0"/>
-        <v>1690</v>
-      </c>
-      <c r="D13" s="14">
-        <v>881</v>
-      </c>
-      <c r="E13" s="14">
-        <v>809</v>
-      </c>
-      <c r="F13" s="10"/>
-      <c r="G13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H13" s="6">
-        <f t="shared" si="1"/>
-        <v>-4.5865396360083057</v>
-      </c>
-      <c r="I13" s="7">
-        <f t="shared" si="2"/>
-        <v>3.9025283986808357</v>
-      </c>
-      <c r="J13" s="4"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="2:14">
-      <c r="B14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="8">
-        <f t="shared" si="0"/>
-        <v>1390</v>
-      </c>
-      <c r="D14" s="14">
-        <v>751</v>
-      </c>
-      <c r="E14" s="14">
-        <v>639</v>
-      </c>
-      <c r="F14" s="10"/>
-      <c r="G14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H14" s="6">
-        <f t="shared" si="1"/>
-        <v>-3.5788445095883721</v>
-      </c>
-      <c r="I14" s="7">
-        <f t="shared" si="2"/>
-        <v>3.7376328325393922</v>
-      </c>
-      <c r="J14" s="4"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="2:14">
-      <c r="B15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="8">
-        <f t="shared" si="0"/>
-        <v>1198</v>
-      </c>
-      <c r="D15" s="14">
-        <v>586</v>
-      </c>
-      <c r="E15" s="14">
-        <v>612</v>
-      </c>
-      <c r="F15" s="10"/>
-      <c r="G15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H15" s="6">
-        <f t="shared" si="1"/>
-        <v>-3.5544155368266765</v>
-      </c>
-      <c r="I15" s="7">
-        <f t="shared" si="2"/>
-        <v>3.6032734823500676</v>
-      </c>
-      <c r="J15" s="4"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="2:14">
-      <c r="B16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="8">
-        <f t="shared" si="0"/>
-        <v>1172</v>
-      </c>
-      <c r="D16" s="14">
-        <v>582</v>
-      </c>
-      <c r="E16" s="14">
-        <v>590</v>
-      </c>
-      <c r="F16" s="10"/>
-      <c r="G16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H16" s="6">
-        <f t="shared" si="1"/>
-        <v>-2.9986564064981067</v>
-      </c>
-      <c r="I16" s="7">
-        <f t="shared" si="2"/>
-        <v>2.9681201905459873</v>
-      </c>
-      <c r="J16" s="4"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="2:14">
-      <c r="B17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="8">
-        <f t="shared" si="0"/>
-        <v>977</v>
-      </c>
-      <c r="D17" s="14">
-        <v>491</v>
-      </c>
-      <c r="E17" s="14">
-        <v>486</v>
-      </c>
-      <c r="F17" s="10"/>
-      <c r="G17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H17" s="6">
-        <f t="shared" si="1"/>
-        <v>-2.5894711127397092</v>
-      </c>
-      <c r="I17" s="7">
-        <f t="shared" si="2"/>
-        <v>2.6688652742152192</v>
-      </c>
-      <c r="J17" s="4"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="2:14">
-      <c r="B18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="8">
-        <f t="shared" si="0"/>
-        <v>861</v>
-      </c>
-      <c r="D18" s="14">
-        <v>424</v>
-      </c>
-      <c r="E18" s="14">
-        <v>437</v>
-      </c>
-      <c r="F18" s="10"/>
-      <c r="G18" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H18" s="6">
-        <f t="shared" si="1"/>
-        <v>-2.5650421399780141</v>
-      </c>
-      <c r="I18" s="7">
-        <f t="shared" si="2"/>
-        <v>2.4306827897886891</v>
-      </c>
-      <c r="J18" s="4"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="2:14">
-      <c r="B19" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="8">
-        <f t="shared" si="0"/>
-        <v>818</v>
-      </c>
-      <c r="D19" s="14">
-        <v>420</v>
-      </c>
-      <c r="E19" s="14">
-        <v>398</v>
-      </c>
-      <c r="F19" s="10"/>
-      <c r="G19" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H19" s="6">
-        <f t="shared" si="1"/>
-        <v>-2.4428972761695369</v>
-      </c>
-      <c r="I19" s="7">
-        <f t="shared" si="2"/>
-        <v>2.2780017100280934</v>
-      </c>
-      <c r="J19" s="4"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="2:14">
-      <c r="B20" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="8">
-        <f t="shared" si="0"/>
-        <v>773</v>
-      </c>
-      <c r="D20" s="14">
-        <v>400</v>
-      </c>
-      <c r="E20" s="14">
-        <v>373</v>
-      </c>
-      <c r="F20" s="10"/>
-      <c r="G20" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H20" s="6">
-        <f t="shared" si="1"/>
-        <v>-2.3024306827897889</v>
-      </c>
-      <c r="I20" s="7">
-        <f t="shared" si="2"/>
-        <v>2.2657872236472456</v>
-      </c>
-      <c r="J20" s="4"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="2:14">
-      <c r="B21" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="8">
-        <f t="shared" si="0"/>
-        <v>748</v>
-      </c>
-      <c r="D21" s="14">
-        <v>377</v>
-      </c>
-      <c r="E21" s="14">
-        <v>371</v>
-      </c>
-      <c r="F21" s="10"/>
-      <c r="G21" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H21" s="6">
-        <f t="shared" si="1"/>
-        <v>-2.1253206302674972</v>
-      </c>
-      <c r="I21" s="7">
-        <f t="shared" si="2"/>
-        <v>1.9604250641260534</v>
-      </c>
-      <c r="J21" s="4"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="2:14">
-      <c r="B22" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" s="8">
-        <f t="shared" si="0"/>
-        <v>669</v>
-      </c>
-      <c r="D22" s="14">
-        <v>348</v>
-      </c>
-      <c r="E22" s="14">
-        <v>321</v>
-      </c>
-      <c r="F22" s="10"/>
-      <c r="G22" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H22" s="6">
-        <f t="shared" si="1"/>
-        <v>-1.8443874435080005</v>
-      </c>
-      <c r="I22" s="7">
-        <f t="shared" si="2"/>
-        <v>1.4107731769879077</v>
-      </c>
-      <c r="J22" s="4"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="2:14">
-      <c r="B23" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C23" s="8">
-        <f t="shared" si="0"/>
-        <v>533</v>
-      </c>
-      <c r="D23" s="14">
-        <v>302</v>
-      </c>
-      <c r="E23" s="14">
-        <v>231</v>
-      </c>
-      <c r="F23" s="10"/>
-      <c r="G23" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H23" s="6">
-        <f t="shared" si="1"/>
-        <v>-1.0870892878954441</v>
-      </c>
-      <c r="I23" s="7">
-        <f t="shared" si="2"/>
-        <v>1.1542689629901062</v>
-      </c>
-      <c r="J23" s="4"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="2:14">
-      <c r="B24" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C24" s="8">
-        <f t="shared" si="0"/>
-        <v>367</v>
-      </c>
-      <c r="D24" s="14">
-        <v>178</v>
-      </c>
-      <c r="E24" s="14">
-        <v>189</v>
-      </c>
-      <c r="F24" s="10"/>
-      <c r="G24" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H24" s="6">
-        <f t="shared" si="1"/>
-        <v>-0.84279956027849023</v>
-      </c>
-      <c r="I24" s="7">
-        <f t="shared" si="2"/>
-        <v>0.96494442408696712</v>
-      </c>
-      <c r="J24" s="4"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="2:14">
-      <c r="B25" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="8">
-        <f t="shared" si="0"/>
-        <v>296</v>
-      </c>
-      <c r="D25" s="14">
-        <v>138</v>
-      </c>
-      <c r="E25" s="14">
-        <v>158</v>
-      </c>
-      <c r="F25" s="10"/>
-      <c r="G25" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H25" s="6">
-        <f t="shared" si="1"/>
-        <v>-0.43972150971051671</v>
-      </c>
-      <c r="I25" s="7">
-        <f t="shared" si="2"/>
-        <v>0.62293880542323199</v>
-      </c>
-      <c r="J25" s="4"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="2:14">
-      <c r="B26" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C26" s="8">
-        <f t="shared" si="0"/>
-        <v>174</v>
-      </c>
-      <c r="D26" s="14">
-        <v>72</v>
-      </c>
-      <c r="E26" s="14">
-        <v>102</v>
-      </c>
-      <c r="F26" s="10"/>
-      <c r="G26" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H26" s="6">
-        <f t="shared" si="1"/>
-        <v>-0.19543178209356296</v>
-      </c>
-      <c r="I26" s="7">
-        <f t="shared" si="2"/>
-        <v>0.26871870037864909</v>
-      </c>
-      <c r="J26" s="4"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="2:14">
-      <c r="B27" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C27" s="8">
-        <f t="shared" si="0"/>
-        <v>76</v>
-      </c>
-      <c r="D27" s="14">
-        <v>32</v>
-      </c>
-      <c r="E27" s="14">
-        <v>44</v>
-      </c>
-      <c r="F27" s="10"/>
-      <c r="G27" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H27" s="6">
-        <f t="shared" si="1"/>
-        <v>-5.4965188713814589E-2</v>
-      </c>
-      <c r="I27" s="7">
-        <f t="shared" si="2"/>
-        <v>6.7179675094662272E-2</v>
-      </c>
-      <c r="J27" s="4"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-    </row>
-    <row r="28" spans="2:14">
-      <c r="B28" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C28" s="8">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="D28" s="14">
-        <v>9</v>
-      </c>
-      <c r="E28" s="14">
-        <v>11</v>
-      </c>
-      <c r="F28" s="10"/>
-      <c r="G28" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="H28" s="34">
-        <f>-(D29/$C$9*100)</f>
-        <v>0</v>
-      </c>
-      <c r="I28" s="35">
-        <f t="shared" si="2"/>
-        <v>1.8321729571271528E-2</v>
-      </c>
-      <c r="J28" s="4"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-    </row>
-    <row r="29" spans="2:14">
-      <c r="B29" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="C29" s="27">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="D29" s="28">
-        <v>0</v>
-      </c>
-      <c r="E29" s="28">
-        <v>3</v>
-      </c>
-      <c r="F29" s="10"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-    </row>
-    <row r="30" spans="2:14">
-      <c r="B30" s="16"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-    </row>
-    <row r="31" spans="2:14">
-      <c r="B31" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-    </row>
-    <row r="32" spans="2:14">
-      <c r="B32" s="2"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-    </row>
-    <row r="33" spans="11:14">
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="H6:I6"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="I1" location="Contenido!F29" display="Volver al Indice"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="G11 B12" twoDigitTextYear="1"/>
-  </ignoredErrors>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:N33"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" max="1" width="0.85546875" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" customWidth="1"/>
-    <col min="6" max="6" width="5.7109375" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" customWidth="1"/>
-    <col min="11" max="11" width="6.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:14">
-      <c r="B1" s="36" t="s">
-        <v>72</v>
-      </c>
-      <c r="I1" s="54" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="3" spans="2:14">
-      <c r="B3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="2:14">
-      <c r="B4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" t="str">
-        <f>+B4</f>
-        <v>Mendoza. Tunuyán. Censo 2010</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14">
-      <c r="B6" s="57" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="62" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="G6" s="57" t="s">
-        <v>0</v>
-      </c>
-      <c r="H6" s="62" t="s">
-        <v>25</v>
-      </c>
-      <c r="I6" s="62"/>
-    </row>
-    <row r="7" spans="2:14">
-      <c r="B7" s="58"/>
-      <c r="C7" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="I7" s="42" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14">
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-    </row>
-    <row r="9" spans="2:14">
-      <c r="B9" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="31">
-        <f>SUM(C10:C29)</f>
-        <v>49458</v>
-      </c>
-      <c r="D9" s="31">
-        <f>SUM(D10:D29)</f>
-        <v>24424</v>
-      </c>
-      <c r="E9" s="31">
-        <f>SUM(E10:E29)</f>
-        <v>25034</v>
-      </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="6">
-        <f>-(D10/$C$9*100)</f>
-        <v>-5.2792268187148688</v>
-      </c>
-      <c r="I9" s="7">
-        <f>+E10/$C$9*100</f>
-        <v>5.174087104209633</v>
-      </c>
-      <c r="K9" s="5"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="2:14">
-      <c r="B10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="8">
-        <f t="shared" ref="C10:C29" si="0">+D10+E10</f>
-        <v>5170</v>
-      </c>
-      <c r="D10" s="14">
-        <v>2611</v>
-      </c>
-      <c r="E10" s="14">
-        <v>2559</v>
-      </c>
-      <c r="F10" s="10"/>
-      <c r="G10" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H10" s="6">
-        <f t="shared" ref="H10:H28" si="1">-(D11/$C$9*100)</f>
-        <v>-4.6665857899632011</v>
-      </c>
-      <c r="I10" s="7">
-        <f t="shared" ref="I10:I28" si="2">+E11/$C$9*100</f>
-        <v>4.5937967568441911</v>
-      </c>
-      <c r="J10" s="4"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="2:14">
-      <c r="B11" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="8">
-        <f t="shared" si="0"/>
-        <v>4580</v>
-      </c>
-      <c r="D11" s="14">
-        <v>2308</v>
-      </c>
-      <c r="E11" s="14">
-        <v>2272</v>
-      </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="H11" s="6">
-        <f t="shared" si="1"/>
-        <v>-4.6140159327105827</v>
-      </c>
-      <c r="I11" s="7">
-        <f t="shared" si="2"/>
-        <v>4.4684378664725628</v>
-      </c>
-      <c r="J11" s="4"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="2:14">
-      <c r="B12" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="8">
-        <f t="shared" si="0"/>
-        <v>4492</v>
-      </c>
-      <c r="D12" s="14">
-        <v>2282</v>
-      </c>
-      <c r="E12" s="14">
-        <v>2210</v>
-      </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H12" s="6">
-        <f t="shared" si="1"/>
-        <v>-4.8162076913744993</v>
-      </c>
-      <c r="I12" s="7">
-        <f t="shared" si="2"/>
-        <v>4.9516761696793239</v>
-      </c>
-      <c r="J12" s="4"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="2:14">
-      <c r="B13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="8">
-        <f t="shared" si="0"/>
-        <v>4831</v>
-      </c>
-      <c r="D13" s="14">
-        <v>2382</v>
-      </c>
-      <c r="E13" s="14">
-        <v>2449</v>
-      </c>
-      <c r="F13" s="10"/>
-      <c r="G13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H13" s="6">
-        <f t="shared" si="1"/>
-        <v>-4.0842735250111204</v>
-      </c>
-      <c r="I13" s="7">
-        <f t="shared" si="2"/>
-        <v>4.2278296736625016</v>
-      </c>
-      <c r="J13" s="4"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="2:14">
-      <c r="B14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="8">
-        <f t="shared" si="0"/>
-        <v>4111</v>
-      </c>
-      <c r="D14" s="14">
-        <v>2020</v>
-      </c>
-      <c r="E14" s="14">
-        <v>2091</v>
-      </c>
-      <c r="F14" s="10"/>
-      <c r="G14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H14" s="6">
-        <f t="shared" si="1"/>
-        <v>-3.9386954587731005</v>
-      </c>
-      <c r="I14" s="7">
-        <f t="shared" si="2"/>
-        <v>3.9407173763597396</v>
-      </c>
-      <c r="J14" s="4"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="2:14">
-      <c r="B15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="8">
-        <f t="shared" si="0"/>
-        <v>3897</v>
-      </c>
-      <c r="D15" s="14">
-        <v>1948</v>
-      </c>
-      <c r="E15" s="14">
-        <v>1949</v>
-      </c>
-      <c r="F15" s="10"/>
-      <c r="G15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H15" s="6">
-        <f t="shared" si="1"/>
-        <v>-3.7789639694286059</v>
-      </c>
-      <c r="I15" s="7">
-        <f t="shared" si="2"/>
-        <v>3.8436653322010592</v>
-      </c>
-      <c r="J15" s="4"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="2:14">
-      <c r="B16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="8">
-        <f t="shared" si="0"/>
-        <v>3770</v>
-      </c>
-      <c r="D16" s="14">
-        <v>1869</v>
-      </c>
-      <c r="E16" s="14">
-        <v>1901</v>
-      </c>
-      <c r="F16" s="10"/>
-      <c r="G16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H16" s="6">
-        <f t="shared" si="1"/>
-        <v>-3.1339722592907111</v>
-      </c>
-      <c r="I16" s="7">
-        <f t="shared" si="2"/>
-        <v>3.2027174572364432</v>
-      </c>
-      <c r="J16" s="4"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="2:14">
-      <c r="B17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="8">
-        <f t="shared" si="0"/>
-        <v>3134</v>
-      </c>
-      <c r="D17" s="14">
-        <v>1550</v>
-      </c>
-      <c r="E17" s="14">
-        <v>1584</v>
-      </c>
-      <c r="F17" s="10"/>
-      <c r="G17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H17" s="6">
-        <f t="shared" si="1"/>
-        <v>-2.7700270936956608</v>
-      </c>
-      <c r="I17" s="7">
-        <f t="shared" si="2"/>
-        <v>2.949977758906547</v>
-      </c>
-      <c r="J17" s="4"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="2:14">
-      <c r="B18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="8">
-        <f t="shared" si="0"/>
-        <v>2829</v>
-      </c>
-      <c r="D18" s="14">
-        <v>1370</v>
-      </c>
-      <c r="E18" s="14">
-        <v>1459</v>
-      </c>
-      <c r="F18" s="10"/>
-      <c r="G18" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H18" s="6">
-        <f t="shared" si="1"/>
-        <v>-2.3110518015285697</v>
-      </c>
-      <c r="I18" s="7">
-        <f t="shared" si="2"/>
-        <v>2.4222572687937238</v>
-      </c>
-      <c r="J18" s="4"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="2:14">
-      <c r="B19" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="8">
-        <f t="shared" si="0"/>
-        <v>2341</v>
-      </c>
-      <c r="D19" s="14">
-        <v>1143</v>
-      </c>
-      <c r="E19" s="14">
-        <v>1198</v>
-      </c>
-      <c r="F19" s="10"/>
-      <c r="G19" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H19" s="6">
-        <f t="shared" si="1"/>
-        <v>-2.3110518015285697</v>
-      </c>
-      <c r="I19" s="7">
-        <f t="shared" si="2"/>
-        <v>2.3454244005014355</v>
-      </c>
-      <c r="J19" s="4"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="2:14">
-      <c r="B20" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="8">
-        <f t="shared" si="0"/>
-        <v>2303</v>
-      </c>
-      <c r="D20" s="14">
-        <v>1143</v>
-      </c>
-      <c r="E20" s="14">
-        <v>1160</v>
-      </c>
-      <c r="F20" s="10"/>
-      <c r="G20" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H20" s="6">
-        <f t="shared" si="1"/>
-        <v>-2.1129038780379314</v>
-      </c>
-      <c r="I20" s="7">
-        <f t="shared" si="2"/>
-        <v>2.2423066035828381</v>
-      </c>
-      <c r="J20" s="4"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="2:14">
-      <c r="B21" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="8">
-        <f t="shared" si="0"/>
-        <v>2154</v>
-      </c>
-      <c r="D21" s="14">
-        <v>1045</v>
-      </c>
-      <c r="E21" s="14">
-        <v>1109</v>
-      </c>
-      <c r="F21" s="10"/>
-      <c r="G21" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H21" s="6">
-        <f t="shared" si="1"/>
-        <v>-1.8480326741882003</v>
-      </c>
-      <c r="I21" s="7">
-        <f t="shared" si="2"/>
-        <v>1.8824052731610659</v>
-      </c>
-      <c r="J21" s="4"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="2:14">
-      <c r="B22" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" s="8">
-        <f t="shared" si="0"/>
-        <v>1845</v>
-      </c>
-      <c r="D22" s="14">
-        <v>914</v>
-      </c>
-      <c r="E22" s="14">
-        <v>931</v>
-      </c>
-      <c r="F22" s="10"/>
-      <c r="G22" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H22" s="6">
-        <f t="shared" si="1"/>
-        <v>-1.3607505358081604</v>
-      </c>
-      <c r="I22" s="7">
-        <f t="shared" si="2"/>
-        <v>1.4436491568603664</v>
-      </c>
-      <c r="J22" s="4"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="2:14">
-      <c r="B23" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C23" s="8">
-        <f t="shared" si="0"/>
-        <v>1387</v>
-      </c>
-      <c r="D23" s="14">
-        <v>673</v>
-      </c>
-      <c r="E23" s="14">
-        <v>714</v>
-      </c>
-      <c r="F23" s="10"/>
-      <c r="G23" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H23" s="6">
-        <f t="shared" si="1"/>
-        <v>-1.0170245460795018</v>
-      </c>
-      <c r="I23" s="7">
-        <f t="shared" si="2"/>
-        <v>1.0797039912653161</v>
-      </c>
-      <c r="J23" s="4"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="2:14">
-      <c r="B24" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C24" s="8">
-        <f t="shared" si="0"/>
-        <v>1037</v>
-      </c>
-      <c r="D24" s="14">
-        <v>503</v>
-      </c>
-      <c r="E24" s="14">
-        <v>534</v>
-      </c>
-      <c r="F24" s="10"/>
-      <c r="G24" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H24" s="6">
-        <f t="shared" si="1"/>
-        <v>-0.73597800153665738</v>
-      </c>
-      <c r="I24" s="7">
-        <f t="shared" si="2"/>
-        <v>0.85122730397508994</v>
-      </c>
-      <c r="J24" s="4"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="2:14">
-      <c r="B25" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="8">
-        <f t="shared" si="0"/>
-        <v>785</v>
-      </c>
-      <c r="D25" s="14">
-        <v>364</v>
-      </c>
-      <c r="E25" s="14">
-        <v>421</v>
-      </c>
-      <c r="F25" s="10"/>
-      <c r="G25" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H25" s="6">
-        <f t="shared" si="1"/>
-        <v>-0.37203283594160702</v>
-      </c>
-      <c r="I25" s="7">
-        <f t="shared" si="2"/>
-        <v>0.59848760564519388</v>
-      </c>
-      <c r="J25" s="4"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="2:14">
-      <c r="B26" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C26" s="8">
-        <f t="shared" si="0"/>
-        <v>480</v>
-      </c>
-      <c r="D26" s="14">
-        <v>184</v>
-      </c>
-      <c r="E26" s="14">
-        <v>296</v>
-      </c>
-      <c r="F26" s="10"/>
-      <c r="G26" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H26" s="6">
-        <f t="shared" si="1"/>
-        <v>-0.16781915969105099</v>
-      </c>
-      <c r="I26" s="7">
-        <f t="shared" si="2"/>
-        <v>0.26689312143637023</v>
-      </c>
-      <c r="J26" s="4"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="2:14">
-      <c r="B27" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C27" s="8">
-        <f t="shared" si="0"/>
-        <v>215</v>
-      </c>
-      <c r="D27" s="14">
-        <v>83</v>
-      </c>
-      <c r="E27" s="14">
-        <v>132</v>
-      </c>
-      <c r="F27" s="10"/>
-      <c r="G27" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H27" s="6">
-        <f t="shared" si="1"/>
-        <v>-5.2569857252618382E-2</v>
-      </c>
-      <c r="I27" s="7">
-        <f t="shared" si="2"/>
-        <v>0.10109587933195842</v>
-      </c>
-      <c r="J27" s="4"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-    </row>
-    <row r="28" spans="2:14">
-      <c r="B28" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C28" s="8">
-        <f t="shared" si="0"/>
-        <v>76</v>
-      </c>
-      <c r="D28" s="14">
-        <v>26</v>
-      </c>
-      <c r="E28" s="14">
-        <v>50</v>
-      </c>
-      <c r="F28" s="10"/>
-      <c r="G28" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="H28" s="34">
-        <f t="shared" si="1"/>
-        <v>-1.2131505519835011E-2</v>
-      </c>
-      <c r="I28" s="35">
-        <f t="shared" si="2"/>
-        <v>3.0328763799587526E-2</v>
-      </c>
-      <c r="J28" s="4"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-    </row>
-    <row r="29" spans="2:14">
-      <c r="B29" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="C29" s="27">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="D29" s="28">
-        <v>6</v>
-      </c>
-      <c r="E29" s="28">
-        <v>15</v>
-      </c>
-      <c r="F29" s="10"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-    </row>
-    <row r="30" spans="2:14">
-      <c r="B30" s="16"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-    </row>
-    <row r="31" spans="2:14">
-      <c r="B31" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-    </row>
-    <row r="32" spans="2:14">
-      <c r="B32" s="2"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-    </row>
-    <row r="33" spans="11:14">
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:I6"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="I1" location="Contenido!F31" display="Volver al Indice"/>
+    <hyperlink ref="I1" location="Contenido!F31" display="Volver al Indice" xr:uid="{00000000-0004-0000-1200-000000000000}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
@@ -23353,7 +23466,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:N34"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -23402,24 +23515,24 @@
       </c>
     </row>
     <row r="6" spans="2:14">
-      <c r="B6" s="57" t="s">
+      <c r="B6" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="59" t="s">
+      <c r="C6" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="G6" s="57" t="s">
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="G6" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="H6" s="61" t="s">
+      <c r="H6" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="61"/>
+      <c r="I6" s="63"/>
     </row>
     <row r="7" spans="2:14">
-      <c r="B7" s="58"/>
+      <c r="B7" s="60"/>
       <c r="C7" s="25" t="s">
         <v>3</v>
       </c>
@@ -23430,7 +23543,7 @@
         <v>2</v>
       </c>
       <c r="F7" s="9"/>
-      <c r="G7" s="60"/>
+      <c r="G7" s="62"/>
       <c r="H7" s="15" t="s">
         <v>1</v>
       </c>
@@ -24191,7 +24304,7 @@
     <mergeCell ref="H6:I6"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="I1" location="Contenido!D15" display="Volver al Indice"/>
+    <hyperlink ref="I1" location="Contenido!D15" display="Volver al Indice" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
@@ -24205,7 +24318,7 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="B1:N33"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -24253,24 +24366,24 @@
       </c>
     </row>
     <row r="6" spans="2:14">
-      <c r="B6" s="57" t="s">
+      <c r="B6" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="62" t="s">
+      <c r="C6" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="G6" s="57" t="s">
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="G6" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="H6" s="62" t="s">
+      <c r="H6" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="62"/>
+      <c r="I6" s="64"/>
     </row>
     <row r="7" spans="2:14">
-      <c r="B7" s="58"/>
+      <c r="B7" s="60"/>
       <c r="C7" s="42" t="s">
         <v>3</v>
       </c>
@@ -24281,7 +24394,7 @@
         <v>2</v>
       </c>
       <c r="F7" s="9"/>
-      <c r="G7" s="58"/>
+      <c r="G7" s="60"/>
       <c r="H7" s="42" t="s">
         <v>1</v>
       </c>
@@ -25020,7 +25133,7 @@
     <mergeCell ref="H6:I6"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="I1" location="Contenido!F33" display="Volver al Indice"/>
+    <hyperlink ref="I1" location="Contenido!F33" display="Volver al Indice" xr:uid="{00000000-0004-0000-1300-000000000000}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
@@ -25034,7 +25147,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:N33"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -25082,25 +25195,25 @@
       </c>
     </row>
     <row r="6" spans="2:14">
-      <c r="B6" s="57" t="s">
+      <c r="B6" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="62" t="s">
+      <c r="C6" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
       <c r="F6" s="40"/>
-      <c r="G6" s="63" t="s">
+      <c r="G6" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="H6" s="62" t="s">
+      <c r="H6" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="62"/>
+      <c r="I6" s="64"/>
     </row>
     <row r="7" spans="2:14">
-      <c r="B7" s="60"/>
+      <c r="B7" s="62"/>
       <c r="C7" s="38" t="s">
         <v>3</v>
       </c>
@@ -25111,7 +25224,7 @@
         <v>2</v>
       </c>
       <c r="F7" s="39"/>
-      <c r="G7" s="64"/>
+      <c r="G7" s="66"/>
       <c r="H7" s="38" t="s">
         <v>1</v>
       </c>
@@ -25850,7 +25963,7 @@
     <mergeCell ref="H6:I6"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="I1" location="Contenido!D17" display="Volver al Indice"/>
+    <hyperlink ref="I1" location="Contenido!D17" display="Volver al Indice" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
@@ -25864,7 +25977,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:N33"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -25912,24 +26025,24 @@
       </c>
     </row>
     <row r="6" spans="2:14">
-      <c r="B6" s="57" t="s">
+      <c r="B6" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="62" t="s">
+      <c r="C6" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="G6" s="57" t="s">
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="G6" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="H6" s="61" t="s">
+      <c r="H6" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="61"/>
+      <c r="I6" s="63"/>
     </row>
     <row r="7" spans="2:14">
-      <c r="B7" s="58"/>
+      <c r="B7" s="60"/>
       <c r="C7" s="37" t="s">
         <v>3</v>
       </c>
@@ -25940,7 +26053,7 @@
         <v>2</v>
       </c>
       <c r="F7" s="9"/>
-      <c r="G7" s="58"/>
+      <c r="G7" s="60"/>
       <c r="H7" s="43" t="s">
         <v>1</v>
       </c>
@@ -26679,7 +26792,7 @@
     <mergeCell ref="H6:I6"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="I1" location="Contenido!D19" display="Volver al Indice"/>
+    <hyperlink ref="I1" location="Contenido!D19" display="Volver al Indice" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -26691,7 +26804,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:N33"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -26739,24 +26852,24 @@
       </c>
     </row>
     <row r="6" spans="2:14">
-      <c r="B6" s="57" t="s">
+      <c r="B6" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="61" t="s">
+      <c r="C6" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="G6" s="57" t="s">
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="G6" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="H6" s="61" t="s">
+      <c r="H6" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="61"/>
+      <c r="I6" s="63"/>
     </row>
     <row r="7" spans="2:14">
-      <c r="B7" s="58"/>
+      <c r="B7" s="60"/>
       <c r="C7" s="43" t="s">
         <v>3</v>
       </c>
@@ -26767,7 +26880,7 @@
         <v>2</v>
       </c>
       <c r="F7" s="9"/>
-      <c r="G7" s="58"/>
+      <c r="G7" s="60"/>
       <c r="H7" s="43" t="s">
         <v>1</v>
       </c>
@@ -27506,7 +27619,7 @@
     <mergeCell ref="H6:I6"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="I1" location="Contenido!D21" display="Volver al Indice"/>
+    <hyperlink ref="I1" location="Contenido!D21" display="Volver al Indice" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
@@ -27520,7 +27633,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B1:N35"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -27568,24 +27681,24 @@
       </c>
     </row>
     <row r="6" spans="2:14">
-      <c r="B6" s="57" t="s">
+      <c r="B6" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="61" t="s">
+      <c r="C6" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="G6" s="57" t="s">
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="G6" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="H6" s="61" t="s">
+      <c r="H6" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="61"/>
+      <c r="I6" s="63"/>
     </row>
     <row r="7" spans="2:14">
-      <c r="B7" s="58"/>
+      <c r="B7" s="60"/>
       <c r="C7" s="43" t="s">
         <v>3</v>
       </c>
@@ -27596,7 +27709,7 @@
         <v>2</v>
       </c>
       <c r="F7" s="9"/>
-      <c r="G7" s="58"/>
+      <c r="G7" s="60"/>
       <c r="H7" s="43" t="s">
         <v>1</v>
       </c>
@@ -28363,7 +28476,7 @@
     <mergeCell ref="H6:I6"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="I1" location="Contenido!D23" display="Volver al Indice"/>
+    <hyperlink ref="I1" location="Contenido!D23" display="Volver al Indice" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -28374,11 +28487,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B1:N33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -28423,21 +28536,21 @@
       </c>
     </row>
     <row r="6" spans="2:14">
-      <c r="B6" s="57" t="s">
+      <c r="B6" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="61" t="s">
+      <c r="C6" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="G6" s="57" t="s">
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="G6" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="H6" s="61" t="s">
+      <c r="H6" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="61"/>
+      <c r="I6" s="63"/>
       <c r="K6" t="s">
         <v>85</v>
       </c>
@@ -28446,7 +28559,7 @@
       </c>
     </row>
     <row r="7" spans="2:14">
-      <c r="B7" s="60"/>
+      <c r="B7" s="62"/>
       <c r="C7" s="15" t="s">
         <v>3</v>
       </c>
@@ -28457,7 +28570,7 @@
         <v>2</v>
       </c>
       <c r="F7" s="9"/>
-      <c r="G7" s="60"/>
+      <c r="G7" s="62"/>
       <c r="H7" s="15" t="s">
         <v>1</v>
       </c>
@@ -28468,7 +28581,7 @@
         <f>2</f>
         <v>2</v>
       </c>
-      <c r="L7" s="66">
+      <c r="L7" s="58">
         <f>C10*K7</f>
         <v>6312</v>
       </c>
@@ -28486,7 +28599,7 @@
         <f>K7+5</f>
         <v>7</v>
       </c>
-      <c r="L8" s="66">
+      <c r="L8" s="58">
         <f t="shared" ref="L8:L26" si="0">C11*K8</f>
         <v>20860</v>
       </c>
@@ -28523,7 +28636,7 @@
         <f t="shared" ref="K9:K25" si="1">K8+5</f>
         <v>12</v>
       </c>
-      <c r="L9" s="66">
+      <c r="L9" s="58">
         <f t="shared" si="0"/>
         <v>40596</v>
       </c>
@@ -28561,7 +28674,7 @@
         <f>K9+5</f>
         <v>17</v>
       </c>
-      <c r="L10" s="66">
+      <c r="L10" s="58">
         <f t="shared" si="0"/>
         <v>61506</v>
       </c>
@@ -28599,7 +28712,7 @@
         <f>K10+5</f>
         <v>22</v>
       </c>
-      <c r="L11" s="66">
+      <c r="L11" s="58">
         <f t="shared" si="0"/>
         <v>67386</v>
       </c>
@@ -28637,7 +28750,7 @@
         <f>K11+5</f>
         <v>27</v>
       </c>
-      <c r="L12" s="66">
+      <c r="L12" s="58">
         <f t="shared" si="0"/>
         <v>74169</v>
       </c>
@@ -28675,7 +28788,7 @@
         <f>K12+5</f>
         <v>32</v>
       </c>
-      <c r="L13" s="66">
+      <c r="L13" s="58">
         <f t="shared" si="0"/>
         <v>87168</v>
       </c>
@@ -28713,7 +28826,7 @@
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="L14" s="66">
+      <c r="L14" s="58">
         <f t="shared" si="0"/>
         <v>91982</v>
       </c>
@@ -28751,7 +28864,7 @@
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="L15" s="66">
+      <c r="L15" s="58">
         <f t="shared" si="0"/>
         <v>93030</v>
       </c>
@@ -28789,7 +28902,7 @@
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
-      <c r="L16" s="66">
+      <c r="L16" s="58">
         <f t="shared" si="0"/>
         <v>99593</v>
       </c>
@@ -28827,7 +28940,7 @@
         <f t="shared" si="1"/>
         <v>52</v>
       </c>
-      <c r="L17" s="66">
+      <c r="L17" s="58">
         <f t="shared" si="0"/>
         <v>100776</v>
       </c>
@@ -28865,7 +28978,7 @@
         <f t="shared" si="1"/>
         <v>57</v>
       </c>
-      <c r="L18" s="66">
+      <c r="L18" s="58">
         <f t="shared" si="0"/>
         <v>107730</v>
       </c>
@@ -28903,7 +29016,7 @@
         <f t="shared" si="1"/>
         <v>62</v>
       </c>
-      <c r="L19" s="66">
+      <c r="L19" s="58">
         <f t="shared" si="0"/>
         <v>101122</v>
       </c>
@@ -28941,7 +29054,7 @@
         <f t="shared" si="1"/>
         <v>67</v>
       </c>
-      <c r="L20" s="66">
+      <c r="L20" s="58">
         <f t="shared" si="0"/>
         <v>87502</v>
       </c>
@@ -28979,7 +29092,7 @@
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
-      <c r="L21" s="66">
+      <c r="L21" s="58">
         <f t="shared" si="0"/>
         <v>72216</v>
       </c>
@@ -29017,7 +29130,7 @@
         <f t="shared" si="1"/>
         <v>77</v>
       </c>
-      <c r="L22" s="66">
+      <c r="L22" s="58">
         <f t="shared" si="0"/>
         <v>60984</v>
       </c>
@@ -29055,7 +29168,7 @@
         <f t="shared" si="1"/>
         <v>82</v>
       </c>
-      <c r="L23" s="66">
+      <c r="L23" s="58">
         <f t="shared" si="0"/>
         <v>40016</v>
       </c>
@@ -29093,7 +29206,7 @@
         <f>K23+5</f>
         <v>87</v>
       </c>
-      <c r="L24" s="66">
+      <c r="L24" s="58">
         <f t="shared" si="0"/>
         <v>20532</v>
       </c>
@@ -29131,7 +29244,7 @@
         <f t="shared" si="1"/>
         <v>92</v>
       </c>
-      <c r="L25" s="66">
+      <c r="L25" s="58">
         <f t="shared" si="0"/>
         <v>6440</v>
       </c>
@@ -29169,7 +29282,7 @@
         <f>K25+5</f>
         <v>97</v>
       </c>
-      <c r="L26" s="66">
+      <c r="L26" s="58">
         <f t="shared" si="0"/>
         <v>1358</v>
       </c>
@@ -29206,7 +29319,7 @@
       <c r="K27" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="L27" s="65">
+      <c r="L27" s="57">
         <f>SUM(L7:L26)</f>
         <v>1241278</v>
       </c>
@@ -29243,7 +29356,7 @@
       <c r="K28" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="L28" s="65">
+      <c r="L28" s="57">
         <f>L27/C9</f>
         <v>32.786867059351806</v>
       </c>
@@ -29336,7 +29449,7 @@
     <mergeCell ref="H6:I6"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="I1" location="Contenido!D25" display="Volver al Indice"/>
+    <hyperlink ref="I1" location="Contenido!D25" display="Volver al Indice" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -29347,7 +29460,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -29398,24 +29511,24 @@
       </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="B6" s="63" t="s">
+      <c r="B6" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="62" t="s">
+      <c r="C6" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="G6" s="57" t="s">
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="G6" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="H6" s="61" t="s">
+      <c r="H6" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="61"/>
+      <c r="I6" s="63"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="B7" s="63"/>
+      <c r="B7" s="65"/>
       <c r="C7" s="42" t="s">
         <v>3</v>
       </c>
@@ -29426,7 +29539,7 @@
         <v>2</v>
       </c>
       <c r="F7" s="9"/>
-      <c r="G7" s="60"/>
+      <c r="G7" s="62"/>
       <c r="H7" s="15" t="s">
         <v>1</v>
       </c>
@@ -30165,7 +30278,7 @@
     <mergeCell ref="H6:I6"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="I1" location="Contenido!D27" display="Volver al Indice"/>
+    <hyperlink ref="I1" location="Contenido!D27" display="Volver al Indice" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -30177,7 +30290,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="B1:N33"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -30225,24 +30338,24 @@
       </c>
     </row>
     <row r="6" spans="2:14">
-      <c r="B6" s="57" t="s">
+      <c r="B6" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="62" t="s">
+      <c r="C6" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="G6" s="57" t="s">
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="G6" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="H6" s="62" t="s">
+      <c r="H6" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="62"/>
+      <c r="I6" s="64"/>
     </row>
     <row r="7" spans="2:14">
-      <c r="B7" s="60"/>
+      <c r="B7" s="62"/>
       <c r="C7" s="41" t="s">
         <v>3</v>
       </c>
@@ -30253,7 +30366,7 @@
         <v>2</v>
       </c>
       <c r="F7" s="9"/>
-      <c r="G7" s="58"/>
+      <c r="G7" s="60"/>
       <c r="H7" s="42" t="s">
         <v>1</v>
       </c>
@@ -30992,7 +31105,7 @@
     <mergeCell ref="H6:I6"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="I1" location="Contenido!D29" display="Volver al Indice"/>
+    <hyperlink ref="I1" location="Contenido!D29" display="Volver al Indice" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
